--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E6D190-6C88-44F6-81F2-2AB3A1F6384B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="852" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="328">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -732,6 +726,18 @@
     <t>330</t>
   </si>
   <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
@@ -753,105 +759,105 @@
     <t>尾巴</t>
   </si>
   <si>
+    <t>正规军</t>
+  </si>
+  <si>
+    <t>数字里寻宝</t>
+  </si>
+  <si>
+    <t>紫霞仙子</t>
+  </si>
+  <si>
+    <t>天天彩票红</t>
+  </si>
+  <si>
+    <t>卜卜卜</t>
+  </si>
+  <si>
+    <t>前功尽弃</t>
+  </si>
+  <si>
+    <t>陌乀路</t>
+  </si>
+  <si>
+    <t>手机维修师看3D</t>
+  </si>
+  <si>
+    <t>w玉娇龙</t>
+  </si>
+  <si>
+    <t>甜馨</t>
+  </si>
+  <si>
+    <t>旧人离</t>
+  </si>
+  <si>
+    <t>四川3D狂</t>
+  </si>
+  <si>
+    <t>a蓝琪儿</t>
+  </si>
+  <si>
+    <t>南充老兵</t>
+  </si>
+  <si>
+    <t>无名呀</t>
+  </si>
+  <si>
+    <t>解说人生</t>
+  </si>
+  <si>
+    <t>出现&gt;2的次数</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>单挑</t>
+  </si>
+  <si>
     <t>寒香宫主</t>
   </si>
   <si>
-    <t>正规军</t>
-  </si>
-  <si>
     <t>邓兴</t>
   </si>
   <si>
-    <t>数字里寻宝</t>
-  </si>
-  <si>
-    <t>紫霞仙子</t>
-  </si>
-  <si>
-    <t>天天彩票红</t>
-  </si>
-  <si>
-    <t>卜卜卜</t>
-  </si>
-  <si>
-    <t>前功尽弃</t>
-  </si>
-  <si>
-    <t>陌乀路</t>
-  </si>
-  <si>
-    <t>手机维修师看3D</t>
-  </si>
-  <si>
-    <t>w玉娇龙</t>
-  </si>
-  <si>
-    <t>甜馨</t>
-  </si>
-  <si>
-    <t>旧人离</t>
-  </si>
-  <si>
     <t>射雕666</t>
   </si>
   <si>
-    <t>四川3D狂</t>
-  </si>
-  <si>
-    <t>a蓝琪儿</t>
-  </si>
-  <si>
     <t>苑北方</t>
   </si>
   <si>
-    <t>南充老兵</t>
-  </si>
-  <si>
-    <t>无名呀</t>
-  </si>
-  <si>
     <t>dagger</t>
   </si>
   <si>
-    <t>解说人生</t>
-  </si>
-  <si>
-    <t>出现&gt;2的次数</t>
-  </si>
-  <si>
-    <t>剩余</t>
-  </si>
-  <si>
-    <t>单挑</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1348059</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1348059</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -909,15 +915,15 @@
     <t>374589</t>
   </si>
   <si>
+    <t>4078125</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
     <t>81</t>
   </si>
   <si>
-    <t>4078125</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
     <t>80713</t>
   </si>
   <si>
@@ -951,6 +957,15 @@
     <t>14537</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>80571</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -985,149 +1000,19 @@
   </si>
   <si>
     <t>226,569</t>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>74</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>356</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3612</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>361</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,35 +1021,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,30 +1186,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1216,39 +1403,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,20 +1693,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,45 +1714,71 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1584,30 +2036,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" width="6.77734375" style="12"/>
-    <col min="13" max="13" width="3.77734375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="12" customWidth="1"/>
-    <col min="15" max="28" width="6.77734375" style="12"/>
-    <col min="29" max="29" width="3.77734375" style="12" customWidth="1"/>
-    <col min="30" max="30" width="13.5546875" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="6.77734375" style="12"/>
+    <col min="1" max="12" width="6.775" style="12"/>
+    <col min="13" max="13" width="3.775" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.4416666666667" style="12" customWidth="1"/>
+    <col min="15" max="28" width="6.775" style="12"/>
+    <col min="29" max="29" width="3.775" style="12" customWidth="1"/>
+    <col min="30" max="30" width="13.5583333333333" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="6.775" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36" customHeight="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1641,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="10"/>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="12" t="s">
@@ -1653,41 +2105,41 @@
       <c r="Q1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="AC1" s="1"/>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AF1" s="1"/>
@@ -1700,7 +2152,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +2201,7 @@
       <c r="Q2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="17" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="13" t="s">
@@ -1773,15 +2225,15 @@
       <c r="AB2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="23" t="s">
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AE2" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -1830,7 +2282,7 @@
       <c r="Q3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="17" t="s">
         <v>59</v>
       </c>
       <c r="T3" s="14" t="s">
@@ -1857,15 +2309,15 @@
       <c r="AB3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="23" t="s">
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AE3" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
@@ -1914,7 +2366,7 @@
       <c r="Q4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="17" t="s">
         <v>50</v>
       </c>
       <c r="T4" s="14" t="s">
@@ -1944,15 +2396,15 @@
       <c r="AB4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="23" t="s">
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AE4" s="23" t="s">
+      <c r="AE4" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -2001,7 +2453,7 @@
       <c r="Q5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="17" t="s">
         <v>88</v>
       </c>
       <c r="T5" s="14" t="s">
@@ -2031,15 +2483,15 @@
       <c r="AB5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="23" t="s">
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AE5" s="23" t="s">
+      <c r="AE5" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="12" t="s">
         <v>95</v>
       </c>
@@ -2088,7 +2540,7 @@
       <c r="Q6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="16" t="s">
         <v>80</v>
       </c>
       <c r="T6" s="14" t="s">
@@ -2118,15 +2570,15 @@
       <c r="AB6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="23" t="s">
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="23" t="s">
+      <c r="AE6" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
@@ -2175,7 +2627,7 @@
       <c r="Q7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="16" t="s">
         <v>85</v>
       </c>
       <c r="T7" s="14" t="s">
@@ -2205,15 +2657,15 @@
       <c r="AB7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC7" s="27"/>
+      <c r="AC7" s="24"/>
       <c r="AD7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AE7" s="23" t="s">
+      <c r="AE7" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -2262,7 +2714,7 @@
       <c r="Q8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="17" t="s">
         <v>80</v>
       </c>
       <c r="T8" s="14" t="s">
@@ -2299,7 +2751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
@@ -2348,7 +2800,7 @@
       <c r="Q9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="16" t="s">
         <v>91</v>
       </c>
       <c r="T9" s="13" t="s">
@@ -2385,7 +2837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
         <v>132</v>
       </c>
@@ -2471,7 +2923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
@@ -2557,7 +3009,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="12" t="s">
         <v>149</v>
       </c>
@@ -2641,7 +3093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="12" t="s">
         <v>156</v>
       </c>
@@ -2709,7 +3161,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="12" t="s">
         <v>161</v>
       </c>
@@ -2795,7 +3247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="12" t="s">
         <v>169</v>
       </c>
@@ -2877,7 +3329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -2963,7 +3415,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="12" t="s">
         <v>181</v>
       </c>
@@ -2999,7 +3451,7 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="12" t="s">
         <v>183</v>
       </c>
@@ -3049,7 +3501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="12" t="s">
         <v>185</v>
       </c>
@@ -3082,7 +3534,7 @@
       <c r="L19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="20"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="17" t="s">
         <v>188</v>
       </c>
@@ -3095,7 +3547,7 @@
       <c r="Q19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="17" t="s">
         <v>80</v>
       </c>
@@ -3116,11 +3568,11 @@
       </c>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="25"/>
+      <c r="AA19" s="22"/>
       <c r="AB19" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC19" s="20"/>
+      <c r="AC19" s="19"/>
       <c r="AD19" s="17" t="s">
         <v>40</v>
       </c>
@@ -3128,7 +3580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
@@ -3214,7 +3666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="12" t="s">
         <v>194</v>
       </c>
@@ -3300,7 +3752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="12" t="s">
         <v>202</v>
       </c>
@@ -3386,7 +3838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -3472,7 +3924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="12" t="s">
         <v>173</v>
       </c>
@@ -3558,7 +4010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="12" t="s">
         <v>219</v>
       </c>
@@ -3642,7 +4094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="12" t="s">
         <v>224</v>
       </c>
@@ -3697,7 +4149,7 @@
       <c r="T26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="25"/>
+      <c r="U26" s="22"/>
       <c r="V26" s="16" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +4178,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="12" t="s">
         <v>229</v>
       </c>
@@ -3812,177 +4264,185 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="P28" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q28" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="V28" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="W28" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="X28" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y28" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z28" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA28" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB28" s="29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="4.6640625" style="1"/>
+    <col min="22" max="22" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>260</v>
@@ -3991,35 +4451,35 @@
         <v>261</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T1" s="10"/>
       <c r="U1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -4027,7 +4487,7 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>31</v>
@@ -4038,17 +4498,17 @@
       <c r="F2" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>267</v>
+      <c r="G2" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>160</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>50</v>
@@ -4060,28 +4520,28 @@
         <v>80</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P2" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>60</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T2" s="3"/>
-      <c r="U2" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>153</v>
       </c>
       <c r="W2" s="11"/>
@@ -4092,13 +4552,13 @@
         <v>118</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>92</v>
@@ -4115,7 +4575,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4123,28 +4583,28 @@
         <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>160</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>61</v>
@@ -4153,35 +4613,35 @@
         <v>123</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="S3" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>160</v>
@@ -4189,11 +4649,11 @@
       <c r="AD3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4201,28 +4661,28 @@
         <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>87</v>
@@ -4234,38 +4694,38 @@
         <v>131</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>197</v>
@@ -4274,7 +4734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4282,13 +4742,13 @@
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>118</v>
@@ -4297,13 +4757,13 @@
         <v>160</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>112</v>
@@ -4315,26 +4775,26 @@
         <v>80</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>153</v>
@@ -4343,10 +4803,10 @@
         <v>61</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>29</v>
@@ -4355,7 +4815,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -4363,13 +4823,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>78</v>
@@ -4378,13 +4838,13 @@
         <v>160</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>111</v>
@@ -4396,38 +4856,38 @@
         <v>123</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>55</v>
@@ -4436,7 +4896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4444,28 +4904,28 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>160</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>111</v>
@@ -4477,38 +4937,38 @@
         <v>68</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>107</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>174</v>
@@ -4517,7 +4977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4525,28 +4985,28 @@
         <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>154</v>
@@ -4558,26 +5018,26 @@
         <v>98</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>93</v>
@@ -4586,10 +5046,10 @@
         <v>107</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>139</v>
@@ -4598,7 +5058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -4606,28 +5066,28 @@
         <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>39</v>
@@ -4639,38 +5099,38 @@
         <v>90</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AD9" s="5" t="s">
         <v>54</v>
@@ -4679,7 +5139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -4687,28 +5147,28 @@
         <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="I10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>129</v>
@@ -4720,36 +5180,36 @@
         <v>42</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O10" s="8"/>
+        <v>280</v>
+      </c>
+      <c r="O10" s="9"/>
       <c r="P10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>160</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>118</v>
@@ -4758,7 +5218,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -4766,59 +5226,59 @@
         <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>160</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>30</v>
@@ -4827,7 +5287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>183</v>
       </c>
@@ -4835,30 +5295,30 @@
         <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>273</v>
+      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="4" t="s">
         <v>123</v>
       </c>
@@ -4866,15 +5326,15 @@
         <v>68</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="4" t="s">
         <v>160</v>
       </c>
@@ -4882,16 +5342,16 @@
         <v>160</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>127</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>29</v>
@@ -4900,7 +5360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -4908,26 +5368,26 @@
         <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>160</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>69</v>
@@ -4939,7 +5399,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>160</v>
@@ -4948,25 +5408,25 @@
         <v>78</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R13" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="U13" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>78</v>
@@ -4975,7 +5435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -4983,29 +5443,29 @@
         <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>30</v>
@@ -5014,7 +5474,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>160</v>
@@ -5023,25 +5483,25 @@
         <v>53</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>44</v>
@@ -5050,7 +5510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5058,28 +5518,28 @@
         <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>107</v>
@@ -5091,46 +5551,46 @@
         <v>85</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
@@ -5138,28 +5598,28 @@
         <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>111</v>
@@ -5171,49 +5631,49 @@
         <v>30</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>131</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
@@ -5221,7 +5681,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>55</v>
@@ -5233,19 +5693,19 @@
         <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>154</v>
@@ -5254,25 +5714,25 @@
         <v>93</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>301</v>
+      <c r="U17" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>63</v>
@@ -5281,19 +5741,19 @@
         <v>52</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AC17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD17" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -5301,10 +5761,10 @@
         <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>160</v>
@@ -5313,16 +5773,16 @@
         <v>88</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>138</v>
@@ -5334,46 +5794,46 @@
         <v>93</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>93</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AB18" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD18" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="AE18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5381,28 +5841,28 @@
         <v>220</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>118</v>
@@ -5414,25 +5874,25 @@
         <v>123</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>160</v>
@@ -5441,19 +5901,19 @@
         <v>90</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -5461,13 +5921,13 @@
         <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>31</v>
@@ -5476,13 +5936,13 @@
         <v>160</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>70</v>
@@ -5494,28 +5954,28 @@
         <v>41</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>106</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="S20" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>197</v>
@@ -5524,19 +5984,19 @@
         <v>111</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE20" s="31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -5544,28 +6004,28 @@
         <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="J21" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>33</v>
@@ -5577,204 +6037,219 @@
         <v>32</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE21" s="31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>336</v>
+      <c r="D22" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>344</v>
+        <v>271</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA22" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB22" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC22" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD22" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="4" width="5.775" style="1"/>
+    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -5790,7 +6265,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -5806,7 +6281,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -5822,7 +6297,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -5838,7 +6313,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -5854,7 +6329,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -5870,7 +6345,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -5886,7 +6361,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -5902,7 +6377,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -5918,7 +6393,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>181</v>
       </c>
@@ -5934,7 +6409,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -5950,13 +6425,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -5972,13 +6447,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -5997,10 +6472,10 @@
         <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -6016,13 +6491,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -6041,10 +6516,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
@@ -6058,16 +6533,16 @@
         <v>28</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
@@ -6084,7 +6559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>219</v>
       </c>
@@ -6098,19 +6573,19 @@
         <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -6124,13 +6599,13 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>229</v>
       </c>
@@ -6144,30 +6619,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
       <c r="H25" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1EAEA-0C19-490A-B765-52A1909C002A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="348" yWindow="852" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="373">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -963,56 +969,223 @@
     <t>74</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>开奖号</t>
+  </si>
+  <si>
+    <t>小旺财</t>
+  </si>
+  <si>
+    <t>羊姐</t>
+  </si>
+  <si>
+    <t>果冻</t>
+  </si>
+  <si>
+    <t>胆码</t>
+  </si>
+  <si>
+    <t>跨度</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>770,158,239</t>
+  </si>
+  <si>
+    <t>226,569</t>
+  </si>
+  <si>
+    <t>265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>80571</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>开奖号</t>
-  </si>
-  <si>
-    <t>小旺财</t>
-  </si>
-  <si>
-    <t>羊姐</t>
-  </si>
-  <si>
-    <t>果冻</t>
-  </si>
-  <si>
-    <t>胆码</t>
-  </si>
-  <si>
-    <t>跨度</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>770,158,239</t>
-  </si>
-  <si>
-    <t>226,569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23469 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>368</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,151 +1194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,216 +1230,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1403,253 +1267,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1723,62 +1345,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2036,30 +1626,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="6.775" style="12"/>
-    <col min="13" max="13" width="3.775" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.4416666666667" style="12" customWidth="1"/>
-    <col min="15" max="28" width="6.775" style="12"/>
-    <col min="29" max="29" width="3.775" style="12" customWidth="1"/>
-    <col min="30" max="30" width="13.5583333333333" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="6.775" style="12"/>
+    <col min="1" max="12" width="6.77734375" style="12"/>
+    <col min="13" max="13" width="3.77734375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="12" customWidth="1"/>
+    <col min="15" max="28" width="6.77734375" style="12"/>
+    <col min="29" max="29" width="3.77734375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="6.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:40">
+    <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -2152,7 +1742,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -2233,7 +1823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +1907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +1994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -2491,7 +2081,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>95</v>
       </c>
@@ -2578,7 +2168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
@@ -2665,7 +2255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -2751,7 +2341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
@@ -2837,7 +2427,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>132</v>
       </c>
@@ -2923,7 +2513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
@@ -3009,7 +2599,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>149</v>
       </c>
@@ -3093,7 +2683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>156</v>
       </c>
@@ -3161,7 +2751,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>161</v>
       </c>
@@ -3247,7 +2837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>169</v>
       </c>
@@ -3329,7 +2919,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -3415,7 +3005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>181</v>
       </c>
@@ -3451,7 +3041,7 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>183</v>
       </c>
@@ -3501,7 +3091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>185</v>
       </c>
@@ -3580,7 +3170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
@@ -3666,7 +3256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>194</v>
       </c>
@@ -3752,7 +3342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>202</v>
       </c>
@@ -3838,7 +3428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -3924,7 +3514,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>173</v>
       </c>
@@ -4010,7 +3600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>219</v>
       </c>
@@ -4094,7 +3684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>224</v>
       </c>
@@ -4178,7 +3768,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>229</v>
       </c>
@@ -4264,138 +3854,207 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="B28" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="Q28" s="15" t="s">
+      <c r="Q28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="S28" s="15" t="s">
+      <c r="S28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="T28" s="15" t="s">
+      <c r="T28" s="16" t="s">
         <v>55</v>
       </c>
       <c r="U28" s="23"/>
-      <c r="V28" s="15" t="s">
+      <c r="V28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="W28" s="15" t="s">
+      <c r="W28" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="X28" s="15" t="s">
+      <c r="X28" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="Y28" s="15" t="s">
+      <c r="Y28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Z28" s="15" t="s">
+      <c r="Z28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="AA28" s="15" t="s">
+      <c r="AA28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AB28" s="15" t="s">
+      <c r="AB28" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="AD28" s="12" t="s">
+      <c r="AD28" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="AE28" s="12" t="s">
+      <c r="AE28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="S29" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="X29" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y29" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z29" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA29" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB29" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="4.66666666666667" style="1"/>
+    <col min="22" max="22" width="9.6640625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:31">
+    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -4479,7 +4138,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -4575,7 +4234,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4653,7 +4312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4734,7 +4393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4815,7 +4474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -4896,7 +4555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4977,7 +4636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -5058,7 +4717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -5139,7 +4798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -5218,7 +4877,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -5287,7 +4946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>183</v>
       </c>
@@ -5360,7 +5019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -5435,7 +5094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5510,7 +5169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5590,7 +5249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
@@ -5673,7 +5332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
@@ -5753,7 +5412,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -5833,7 +5492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5913,7 +5572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -5996,7 +5655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -6076,180 +5735,240 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="U22" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="W22" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AB22" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC22" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD22" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE22" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB23" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC23" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD23" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE23" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.775" style="1"/>
-    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.775" style="1"/>
-    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.775" style="1"/>
+    <col min="1" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:10">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="3:10">
+      <c r="G1" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -6265,7 +5984,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -6281,7 +6000,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -6297,7 +6016,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -6313,7 +6032,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -6329,7 +6048,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -6345,7 +6064,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -6361,7 +6080,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -6377,7 +6096,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -6393,7 +6112,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>181</v>
       </c>
@@ -6409,7 +6128,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -6431,7 +6150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -6453,7 +6172,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -6475,7 +6194,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -6497,7 +6216,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -6519,7 +6238,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
@@ -6539,10 +6258,10 @@
         <v>38</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
@@ -6559,7 +6278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>219</v>
       </c>
@@ -6582,10 +6301,10 @@
         <v>273</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -6605,7 +6324,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>229</v>
       </c>
@@ -6619,33 +6338,116 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="8:8">
+      <c r="C24" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="H25" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1EAEA-0C19-490A-B765-52A1909C002A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="852" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="论坛胆码" sheetId="3" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="345">
   <si>
     <t>彩坛的达人</t>
   </si>
@@ -732,6 +726,9 @@
     <t>330</t>
   </si>
   <si>
+    <t>265</t>
+  </si>
+  <si>
     <t>356</t>
   </si>
   <si>
@@ -747,6 +744,18 @@
     <t>331</t>
   </si>
   <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>7923</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
@@ -969,186 +978,57 @@
     <t>74</t>
   </si>
   <si>
+    <t>80571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23469 </t>
+  </si>
+  <si>
+    <t>75813</t>
+  </si>
+  <si>
+    <t>04629</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>开奖号</t>
+  </si>
+  <si>
+    <t>小旺财</t>
+  </si>
+  <si>
+    <t>羊姐</t>
+  </si>
+  <si>
+    <t>果冻</t>
+  </si>
+  <si>
+    <t>胆码</t>
+  </si>
+  <si>
+    <t>跨度</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>770,158,239</t>
+  </si>
+  <si>
+    <t>226,569</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>开奖号</t>
-  </si>
-  <si>
-    <t>小旺财</t>
-  </si>
-  <si>
-    <t>羊姐</t>
-  </si>
-  <si>
-    <t>果冻</t>
-  </si>
-  <si>
-    <t>胆码</t>
-  </si>
-  <si>
-    <t>跨度</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>770,158,239</t>
-  </si>
-  <si>
-    <t>226,569</t>
-  </si>
-  <si>
-    <t>265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80571</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">23469 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>337</t>
   </si>
   <si>
@@ -1171,21 +1051,19 @@
   </si>
   <si>
     <t>345</t>
-  </si>
-  <si>
-    <t>368</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,22 +1072,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,36 +1237,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1267,11 +1448,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1288,12 +1711,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1339,36 +1762,65 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1626,30 +2078,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="AA29" sqref="D29 G29 I29 L29 N29 O29 V29 AA29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" width="6.77734375" style="12"/>
-    <col min="13" max="13" width="3.77734375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" style="12" customWidth="1"/>
-    <col min="15" max="28" width="6.77734375" style="12"/>
-    <col min="29" max="29" width="3.77734375" style="12" customWidth="1"/>
-    <col min="30" max="30" width="13.5546875" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="6.77734375" style="12"/>
+    <col min="1" max="12" width="6.775" style="12"/>
+    <col min="13" max="13" width="3.775" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.4416666666667" style="12" customWidth="1"/>
+    <col min="15" max="28" width="6.775" style="12"/>
+    <col min="29" max="29" width="3.775" style="12" customWidth="1"/>
+    <col min="30" max="30" width="13.5583333333333" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="6.775" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36" customHeight="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -1742,7 +2194,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +2267,7 @@
       <c r="AB2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="24"/>
+      <c r="AC2" s="23"/>
       <c r="AD2" s="17" t="s">
         <v>46</v>
       </c>
@@ -1823,7 +2275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +2351,7 @@
       <c r="AB3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="24"/>
+      <c r="AC3" s="23"/>
       <c r="AD3" s="17" t="s">
         <v>64</v>
       </c>
@@ -1907,7 +2359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
@@ -1986,7 +2438,7 @@
       <c r="AB4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AC4" s="24"/>
+      <c r="AC4" s="23"/>
       <c r="AD4" s="17" t="s">
         <v>79</v>
       </c>
@@ -1994,7 +2446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -2073,7 +2525,7 @@
       <c r="AB5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AC5" s="24"/>
+      <c r="AC5" s="23"/>
       <c r="AD5" s="17" t="s">
         <v>94</v>
       </c>
@@ -2081,7 +2533,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="12" t="s">
         <v>95</v>
       </c>
@@ -2160,7 +2612,7 @@
       <c r="AB6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AC6" s="24"/>
+      <c r="AC6" s="23"/>
       <c r="AD6" s="17" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
@@ -2247,7 +2699,7 @@
       <c r="AB7" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC7" s="24"/>
+      <c r="AC7" s="23"/>
       <c r="AD7" s="14" t="s">
         <v>113</v>
       </c>
@@ -2255,7 +2707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -2341,7 +2793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="12" t="s">
         <v>120</v>
       </c>
@@ -2427,7 +2879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
         <v>132</v>
       </c>
@@ -2513,7 +2965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
@@ -2599,7 +3051,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="12" t="s">
         <v>149</v>
       </c>
@@ -2683,7 +3135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="12" t="s">
         <v>156</v>
       </c>
@@ -2751,7 +3203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="12" t="s">
         <v>161</v>
       </c>
@@ -2837,7 +3289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="12" t="s">
         <v>169</v>
       </c>
@@ -2919,7 +3371,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -3005,7 +3457,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="12" t="s">
         <v>181</v>
       </c>
@@ -3041,7 +3493,7 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="12" t="s">
         <v>183</v>
       </c>
@@ -3091,7 +3543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="12" t="s">
         <v>185</v>
       </c>
@@ -3170,7 +3622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="12" t="s">
         <v>189</v>
       </c>
@@ -3256,7 +3708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="12" t="s">
         <v>194</v>
       </c>
@@ -3342,7 +3794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="12" t="s">
         <v>202</v>
       </c>
@@ -3428,7 +3880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="12" t="s">
         <v>207</v>
       </c>
@@ -3514,7 +3966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="12" t="s">
         <v>173</v>
       </c>
@@ -3600,7 +4052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="12" t="s">
         <v>219</v>
       </c>
@@ -3684,7 +4136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="12" t="s">
         <v>224</v>
       </c>
@@ -3768,7 +4220,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="12" t="s">
         <v>229</v>
       </c>
@@ -3854,18 +4306,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>327</v>
+      <c r="B28" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>52</v>
@@ -3892,13 +4344,13 @@
         <v>61</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="17" t="s">
         <v>63</v>
@@ -3909,7 +4361,7 @@
       <c r="T28" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="23"/>
+      <c r="U28" s="22"/>
       <c r="V28" s="17" t="s">
         <v>74</v>
       </c>
@@ -3932,213 +4384,226 @@
         <v>118</v>
       </c>
       <c r="AD28" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AE28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="S29" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="T29" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="X29" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y29" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z29" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA29" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB29" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="15"/>
+      <c r="V29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="14" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="4.6640625" style="1"/>
+    <col min="22" max="22" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="T1" s="10"/>
       <c r="U1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -4146,59 +4611,59 @@
         <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>197</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>272</v>
+      <c r="N2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>274</v>
+      <c r="Q2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>153</v>
@@ -4207,19 +4672,19 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>92</v>
       </c>
       <c r="AF2" s="11"/>
@@ -4234,7 +4699,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4242,77 +4707,77 @@
         <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="R3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AE3" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4320,28 +4785,28 @@
         <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>87</v>
@@ -4353,38 +4818,38 @@
         <v>131</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>197</v>
@@ -4393,7 +4858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -4401,13 +4866,13 @@
         <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>118</v>
@@ -4416,13 +4881,13 @@
         <v>160</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>112</v>
@@ -4434,26 +4899,26 @@
         <v>80</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>160</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>153</v>
@@ -4462,10 +4927,10 @@
         <v>61</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>29</v>
@@ -4474,7 +4939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -4482,13 +4947,13 @@
         <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>78</v>
@@ -4497,13 +4962,13 @@
         <v>160</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>111</v>
@@ -4515,38 +4980,38 @@
         <v>123</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>55</v>
@@ -4555,7 +5020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -4563,28 +5028,28 @@
         <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>160</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>111</v>
@@ -4596,38 +5061,38 @@
         <v>68</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>107</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>174</v>
@@ -4636,7 +5101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -4644,28 +5109,28 @@
         <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>154</v>
@@ -4677,26 +5142,26 @@
         <v>98</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>93</v>
@@ -4705,10 +5170,10 @@
         <v>107</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>139</v>
@@ -4717,7 +5182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
@@ -4725,28 +5190,28 @@
         <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>39</v>
@@ -4758,38 +5223,38 @@
         <v>90</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>70</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AD9" s="5" t="s">
         <v>54</v>
@@ -4798,7 +5263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -4806,28 +5271,28 @@
         <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>129</v>
@@ -4839,36 +5304,36 @@
         <v>42</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>160</v>
       </c>
       <c r="T10" s="10"/>
       <c r="U10" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>118</v>
@@ -4877,7 +5342,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -4885,28 +5350,28 @@
         <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -4915,29 +5380,29 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="R11" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>160</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>30</v>
@@ -4946,7 +5411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>183</v>
       </c>
@@ -4954,28 +5419,28 @@
         <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="4" t="s">
@@ -4985,10 +5450,10 @@
         <v>68</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>69</v>
@@ -5001,16 +5466,16 @@
         <v>160</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>127</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>29</v>
@@ -5019,7 +5484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -5027,7 +5492,7 @@
         <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>200</v>
@@ -5037,16 +5502,16 @@
         <v>107</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>160</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>69</v>
@@ -5058,7 +5523,7 @@
         <v>29</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>160</v>
@@ -5067,25 +5532,25 @@
         <v>78</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>78</v>
@@ -5094,7 +5559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
@@ -5102,7 +5567,7 @@
         <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>78</v>
@@ -5112,19 +5577,19 @@
         <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>30</v>
@@ -5133,7 +5598,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>160</v>
@@ -5142,25 +5607,25 @@
         <v>53</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>44</v>
@@ -5169,7 +5634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>194</v>
       </c>
@@ -5177,28 +5642,28 @@
         <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>107</v>
@@ -5210,46 +5675,46 @@
         <v>85</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>111</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
@@ -5257,28 +5722,28 @@
         <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>111</v>
@@ -5290,49 +5755,49 @@
         <v>30</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>131</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>160</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
@@ -5340,7 +5805,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>55</v>
@@ -5352,19 +5817,19 @@
         <v>118</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>154</v>
@@ -5372,26 +5837,26 @@
       <c r="M17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>272</v>
+      <c r="N17" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>160</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>63</v>
@@ -5400,19 +5865,19 @@
         <v>52</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -5420,10 +5885,10 @@
         <v>215</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>160</v>
@@ -5432,16 +5897,16 @@
         <v>88</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>138</v>
@@ -5453,46 +5918,46 @@
         <v>93</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>93</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="S18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AE18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5500,28 +5965,28 @@
         <v>220</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>118</v>
@@ -5533,25 +5998,25 @@
         <v>123</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>160</v>
@@ -5560,19 +6025,19 @@
         <v>90</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AC19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD19" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
@@ -5580,13 +6045,13 @@
         <v>225</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>31</v>
@@ -5595,13 +6060,13 @@
         <v>160</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>70</v>
@@ -5613,28 +6078,28 @@
         <v>41</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>106</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>197</v>
@@ -5643,19 +6108,19 @@
         <v>111</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>229</v>
       </c>
@@ -5663,28 +6128,28 @@
         <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>33</v>
@@ -5696,279 +6161,298 @@
         <v>32</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>85</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>328</v>
+      <c r="B22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="U22" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="V22" s="26" t="s">
-        <v>330</v>
+        <v>280</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AA22" s="4" t="s">
         <v>131</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AE22" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB23" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC23" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE23" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="4" width="5.775" style="1"/>
+    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
@@ -5984,7 +6468,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -6000,7 +6484,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -6016,7 +6500,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -6032,7 +6516,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>149</v>
       </c>
@@ -6048,7 +6532,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -6064,7 +6548,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -6080,7 +6564,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>169</v>
       </c>
@@ -6096,7 +6580,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -6112,7 +6596,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>181</v>
       </c>
@@ -6128,7 +6612,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>183</v>
       </c>
@@ -6144,13 +6628,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>185</v>
       </c>
@@ -6166,13 +6650,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
@@ -6191,10 +6675,10 @@
         <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>194</v>
       </c>
@@ -6210,13 +6694,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -6235,10 +6719,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
@@ -6252,16 +6736,16 @@
         <v>28</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="I18" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
@@ -6278,7 +6762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>219</v>
       </c>
@@ -6292,19 +6776,19 @@
         <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>224</v>
       </c>
@@ -6318,13 +6802,13 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>229</v>
       </c>
@@ -6338,116 +6822,119 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>327</v>
+      <c r="B23" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE04531-A278-42A6-B40C-4A09C8F3646A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="298">
   <si>
     <t>期号</t>
   </si>
@@ -651,19 +657,357 @@
   </si>
   <si>
     <t>345</t>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>436</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>915</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>536</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>318479</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>881</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>039,059</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>677</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>677</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,151 +1023,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,216 +1065,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1061,253 +1108,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,9 +1141,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1357,62 +1159,45 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1670,33 +1455,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AP28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24:AB24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.775" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.66666666666667" style="1"/>
-    <col min="24" max="24" width="6.775" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.66666666666667" style="1"/>
+    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1"/>
     <col min="26" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.66666666666667" style="1"/>
+    <col min="27" max="27" width="9.44140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:28">
+    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1554,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15"/>
+      <c r="Y1" s="14"/>
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:42">
+    <row r="2" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1805,10 +1590,10 @@
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1835,7 +1620,7 @@
       <c r="R2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -1854,29 +1639,29 @@
         <v>45</v>
       </c>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:27">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+    </row>
+    <row r="3" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1934,19 +1719,19 @@
       <c r="T3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="15"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="6" t="s">
         <v>59</v>
       </c>
@@ -1954,7 +1739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:27">
+    <row r="4" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2035,7 +1820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:27">
+    <row r="5" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2116,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:27">
+    <row r="6" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2189,7 +1974,7 @@
       <c r="X6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="15"/>
+      <c r="Y6" s="14"/>
       <c r="Z6" s="5" t="s">
         <v>84</v>
       </c>
@@ -2197,7 +1982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:27">
+    <row r="7" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2270,7 +2055,7 @@
       <c r="X7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="15"/>
+      <c r="Y7" s="14"/>
       <c r="Z7" s="4" t="s">
         <v>94</v>
       </c>
@@ -2278,7 +2063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:27">
+    <row r="8" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2351,7 +2136,7 @@
       <c r="X8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="5" t="s">
         <v>103</v>
       </c>
@@ -2359,7 +2144,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:27">
+    <row r="9" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2432,7 +2217,7 @@
       <c r="X9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="15"/>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="5" t="s">
         <v>108</v>
       </c>
@@ -2440,7 +2225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:27">
+    <row r="10" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2492,7 +2277,7 @@
       <c r="Q10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="10"/>
       <c r="S10" s="5" t="s">
         <v>112</v>
       </c>
@@ -2511,7 +2296,7 @@
       <c r="X10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="15"/>
+      <c r="Y10" s="14"/>
       <c r="Z10" s="4" t="s">
         <v>113</v>
       </c>
@@ -2519,7 +2304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:26">
+    <row r="11" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -2556,12 +2341,12 @@
       <c r="L11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
       <c r="O11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="4" t="s">
         <v>65</v>
       </c>
@@ -2574,7 +2359,7 @@
       <c r="T11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U11" s="11"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2588,7 +2373,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:26">
+    <row r="12" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>120</v>
       </c>
@@ -2625,7 +2410,7 @@
       <c r="L12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="11"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="4" t="s">
         <v>56</v>
       </c>
@@ -2647,7 +2432,7 @@
       <c r="T12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="U12" s="10"/>
       <c r="V12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2661,7 +2446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:26">
+    <row r="13" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -2680,7 +2465,7 @@
       <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
@@ -2736,7 +2521,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:26">
+    <row r="14" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -2755,7 +2540,7 @@
       <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
         <v>131</v>
       </c>
@@ -2811,7 +2596,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:27">
+    <row r="15" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2891,7 +2676,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:28">
+    <row r="16" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -2974,7 +2759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:27">
+    <row r="17" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -3047,14 +2832,14 @@
       <c r="X17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="12" t="s">
         <v>150</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:27">
+    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -3134,7 +2919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:27">
+    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -3214,7 +2999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:28">
+    <row r="20" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -3297,7 +3082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:27">
+    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -3377,7 +3162,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:28">
+    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -3456,11 +3241,11 @@
       <c r="AA22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AB22" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:28">
+    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -3512,7 +3297,7 @@
       <c r="Q23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R23" s="14"/>
+      <c r="R23" s="13"/>
       <c r="S23" s="5" t="s">
         <v>64</v>
       </c>
@@ -3541,7 +3326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>180</v>
       </c>
@@ -3560,7 +3345,9 @@
       <c r="F24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="H24" s="8" t="s">
         <v>34</v>
       </c>
@@ -3573,7 +3360,7 @@
       <c r="K24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="8" t="s">
         <v>117</v>
       </c>
@@ -3589,7 +3376,7 @@
       <c r="Q24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="8" t="s">
         <v>91</v>
       </c>
@@ -3618,53 +3405,361 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="S25" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="W25" s="11"/>
+      <c r="X25" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z25" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB25" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="R26" s="11"/>
+      <c r="S26" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="W26" s="11"/>
+      <c r="X26" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA26" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB26" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="W27" s="11"/>
+      <c r="X27" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D28" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="R28" s="24"/>
+      <c r="S28" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.775" style="1"/>
-    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.775" style="1"/>
-    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.775" style="1"/>
+    <col min="1" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:10">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3679,14 +3774,14 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="3:10">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -3704,7 +3799,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3720,7 +3815,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -3736,7 +3831,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -3752,7 +3847,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -3768,7 +3863,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -3784,7 +3879,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3800,7 +3895,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -3816,7 +3911,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -3832,7 +3927,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3848,7 +3943,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3864,7 +3959,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3886,7 +3981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -3908,7 +4003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
@@ -3930,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -3952,7 +4047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -3974,7 +4069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -3997,7 +4092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
@@ -4014,7 +4109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -4040,7 +4135,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -4060,7 +4155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -4074,7 +4169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -4088,7 +4183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -4104,11 +4199,11 @@
       <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
@@ -4127,71 +4222,129 @@
       <c r="H25" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="AB32" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>211</v>
       </c>
@@ -4200,8 +4353,8 @@
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE04531-A278-42A6-B40C-4A09C8F3646A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="231">
   <si>
     <t>期号</t>
   </si>
@@ -575,15 +569,84 @@
     <t>02348</t>
   </si>
   <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>34678</t>
+  </si>
+  <si>
     <t>334</t>
   </si>
   <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>318479</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
     <t>335</t>
   </si>
   <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>2345678</t>
+  </si>
+  <si>
     <t>336</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>367258</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -611,9 +674,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>770,158,239</t>
   </si>
   <si>
@@ -632,382 +692,35 @@
     <t>726</t>
   </si>
   <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
+    <t>436</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>039,059</t>
+  </si>
+  <si>
+    <t>5尾</t>
   </si>
   <si>
     <t>344</t>
   </si>
   <si>
     <t>345</t>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>436</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>915</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>536</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>536</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34678</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>318479</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0256</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>881</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>039,059</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2345678</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>677</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>677</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5尾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,35 +729,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,42 +894,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39985351115451523"/>
+        <fgColor theme="9" tint="0.399853511154515"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79979857783745845"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1111,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1132,72 +1377,89 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1455,33 +1717,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="1"/>
+    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.775" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88333333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.775" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.66666666666667" style="1"/>
     <col min="26" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.6640625" style="1"/>
+    <col min="27" max="27" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.8" customHeight="1" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1590,10 +1852,10 @@
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1620,7 +1882,7 @@
       <c r="R2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -1639,10 +1901,10 @@
         <v>45</v>
       </c>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="AB2" s="15"/>
@@ -1661,7 +1923,7 @@
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
-    <row r="3" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="13.8" customHeight="1" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1719,13 +1981,13 @@
       <c r="T3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="X3" s="4" t="s">
@@ -1739,7 +2001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.8" customHeight="1" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1820,7 +2082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.8" customHeight="1" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1901,7 +2163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.8" customHeight="1" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1982,7 +2244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2063,7 +2325,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" customHeight="1" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2144,7 +2406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" customHeight="1" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2225,7 +2487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.8" customHeight="1" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2304,7 +2566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -2373,7 +2635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" customHeight="1" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>120</v>
       </c>
@@ -2446,7 +2708,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" customHeight="1" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -2521,7 +2783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" customHeight="1" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -2596,7 +2858,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" customHeight="1" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2676,7 +2938,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" spans="1:28">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -2759,7 +3021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:27">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -2832,14 +3094,14 @@
       <c r="X17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="12" t="s">
+      <c r="Z17" s="7" t="s">
         <v>150</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" customHeight="1" spans="1:27">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -2919,7 +3181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:27">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -2999,7 +3261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:28">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -3082,7 +3344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:27">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -3162,7 +3424,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" customHeight="1" spans="1:28">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -3241,11 +3503,11 @@
       <c r="AA22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AB22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:28">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -3297,7 +3559,7 @@
       <c r="Q23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R23" s="13"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="5" t="s">
         <v>64</v>
       </c>
@@ -3322,11 +3584,11 @@
       <c r="AA23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="AB23" s="8" t="s">
+      <c r="AB23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="1" t="s">
         <v>180</v>
       </c>
@@ -3336,63 +3598,63 @@
       <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="8" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="P24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="8" t="s">
+      <c r="R24" s="10"/>
+      <c r="S24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="V24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="7" t="s">
+      <c r="W24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="X24" s="8" t="s">
+      <c r="X24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="Z24" s="6" t="s">
@@ -3405,401 +3667,412 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="U25" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z25" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA25" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB25" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W25" s="10"/>
+      <c r="X25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q26" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="U26" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z26" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA26" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB26" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" s="10"/>
+      <c r="X26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="T27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="U27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA27" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB27" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="10"/>
+      <c r="X27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="13"/>
+      <c r="X28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="4" width="5.775" style="1"/>
+    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3807,7 +4080,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>177</v>
@@ -3815,7 +4088,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -3831,7 +4104,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -3847,7 +4120,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -3863,7 +4136,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -3879,7 +4152,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -3895,7 +4168,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -3911,7 +4184,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -3927,7 +4200,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3943,7 +4216,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3951,7 +4224,7 @@
         <v>115</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>138</v>
@@ -3959,7 +4232,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3981,7 +4254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -4003,7 +4276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
@@ -4025,7 +4298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -4047,7 +4320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -4069,7 +4342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -4085,14 +4358,14 @@
       <c r="H18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>196</v>
+      <c r="I18" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
@@ -4109,7 +4382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -4132,10 +4405,10 @@
         <v>39</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -4146,7 +4419,7 @@
         <v>137</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>39</v>
@@ -4155,7 +4428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -4169,7 +4442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -4183,7 +4456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -4199,162 +4472,162 @@
       <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J24" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>200</v>
+      <c r="G25" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="18" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="20" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AB32" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E066BC1B-B7FD-4865-B1CA-0786F11682E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="250">
   <si>
     <t>期号</t>
   </si>
@@ -708,19 +714,89 @@
   </si>
   <si>
     <t>345</t>
+  </si>
+  <si>
+    <t>665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>665</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,151 +805,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,216 +847,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
+        <fgColor theme="9" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1111,253 +890,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,9 +929,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,62 +938,30 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1717,33 +1219,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.775" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.775" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.66666666666667" style="1"/>
+    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" style="1"/>
     <col min="26" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.66666666666667" style="1"/>
+    <col min="27" max="27" width="9.44140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:28">
+    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1318,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14"/>
+      <c r="Y1" s="13"/>
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:42">
+    <row r="2" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1907,23 +1409,23 @@
       <c r="AA2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:27">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+    </row>
+    <row r="3" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1993,7 +1495,7 @@
       <c r="X3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="14"/>
+      <c r="Y3" s="13"/>
       <c r="Z3" s="6" t="s">
         <v>59</v>
       </c>
@@ -2001,7 +1503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:27">
+    <row r="4" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2082,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:27">
+    <row r="5" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +1665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:27">
+    <row r="6" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2236,7 +1738,7 @@
       <c r="X6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="14"/>
+      <c r="Y6" s="13"/>
       <c r="Z6" s="5" t="s">
         <v>84</v>
       </c>
@@ -2244,7 +1746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:27">
+    <row r="7" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -2317,7 +1819,7 @@
       <c r="X7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="14"/>
+      <c r="Y7" s="13"/>
       <c r="Z7" s="4" t="s">
         <v>94</v>
       </c>
@@ -2325,7 +1827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:27">
+    <row r="8" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -2398,7 +1900,7 @@
       <c r="X8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="13"/>
       <c r="Z8" s="5" t="s">
         <v>103</v>
       </c>
@@ -2406,7 +1908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:27">
+    <row r="9" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2479,7 +1981,7 @@
       <c r="X9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="5" t="s">
         <v>108</v>
       </c>
@@ -2487,7 +1989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:27">
+    <row r="10" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2558,7 +2060,7 @@
       <c r="X10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="13"/>
       <c r="Z10" s="4" t="s">
         <v>113</v>
       </c>
@@ -2566,7 +2068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:26">
+    <row r="11" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
@@ -2635,7 +2137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:26">
+    <row r="12" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>120</v>
       </c>
@@ -2708,7 +2210,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:26">
+    <row r="13" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -2783,7 +2285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:26">
+    <row r="14" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -2858,7 +2360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:27">
+    <row r="15" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -2938,7 +2440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:28">
+    <row r="16" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -3021,7 +2523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:27">
+    <row r="17" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -3101,7 +2603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:27">
+    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>151</v>
       </c>
@@ -3181,7 +2683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:27">
+    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -3261,7 +2763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:28">
+    <row r="20" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>160</v>
       </c>
@@ -3344,7 +2846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:27">
+    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
@@ -3424,7 +2926,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:28">
+    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
@@ -3507,7 +3009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:28">
+    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -3588,7 +3090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>180</v>
       </c>
@@ -3667,7 +3169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>115</v>
       </c>
@@ -3744,7 +3246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
@@ -3823,7 +3325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>194</v>
       </c>
@@ -3902,137 +3404,197 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="2" t="s">
+      <c r="L28" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="13"/>
-      <c r="S28" s="2" t="s">
+      <c r="R28" s="12"/>
+      <c r="S28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" s="13"/>
-      <c r="X28" s="2" t="s">
+      <c r="U28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="12"/>
+      <c r="X28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="AB28" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="D29" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.775" style="1"/>
-    <col min="5" max="6" width="3.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.775" style="1"/>
-    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.775" style="1"/>
+    <col min="1" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:10">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4047,14 +3609,14 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="3:10">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -4072,7 +3634,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -4088,7 +3650,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -4104,7 +3666,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -4120,7 +3682,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -4136,7 +3698,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -4152,7 +3714,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -4168,7 +3730,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -4184,7 +3746,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -4200,7 +3762,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -4216,7 +3778,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -4232,7 +3794,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -4254,7 +3816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -4276,7 +3838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>129</v>
       </c>
@@ -4298,7 +3860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -4320,7 +3882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -4342,7 +3904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -4365,7 +3927,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
@@ -4382,7 +3944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -4408,7 +3970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -4428,7 +3990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -4442,7 +4004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -4456,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -4476,7 +4038,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
@@ -4499,7 +4061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>115</v>
       </c>
@@ -4519,7 +4081,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -4539,7 +4101,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -4557,34 +4119,49 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="C30" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>205</v>
       </c>
@@ -4592,32 +4169,32 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>230</v>
       </c>
@@ -4626,8 +4203,8 @@
   <mergeCells count="1">
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E066BC1B-B7FD-4865-B1CA-0786F11682E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEC908-4B7C-4491-AB13-A5369D292ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="274">
   <si>
     <t>期号</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>无名呀</t>
-  </si>
-  <si>
-    <t>dagger</t>
   </si>
   <si>
     <t>解说人生</t>
@@ -790,6 +787,106 @@
   <si>
     <t>48</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>959</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>959</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>578349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单尾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5967</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -894,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -944,10 +1041,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1225,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1236,16 +1339,14 @@
     <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="1"/>
-    <col min="26" max="26" width="9" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="4.6640625" style="1"/>
+    <col min="22" max="23" width="6.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" style="1"/>
+    <col min="25" max="25" width="9" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,100 +1416,95 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13"/>
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="P2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="V2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="3"/>
       <c r="Z2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -1423,2150 +1519,2146 @@
       <c r="AM2" s="14"/>
       <c r="AN2" s="14"/>
       <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-    </row>
-    <row r="3" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="13"/>
       <c r="Z3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="T6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="13"/>
       <c r="Z7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="N8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="W9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+      <c r="J10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="R12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="N14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="4" t="s">
+      <c r="Y14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="5" t="s">
+      <c r="T15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AA15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y16" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="T17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="P18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="5" t="s">
+    </row>
+    <row r="20" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="4" t="s">
+      <c r="J20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="M20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="Z20" s="5" t="s">
         <v>162</v>
       </c>
       <c r="AA20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AB20" s="5" t="s">
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AA21" s="4" t="s">
+    </row>
+    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="O22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="W22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AB22" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="V23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="Z23" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AA23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AB23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R24" s="10"/>
       <c r="S24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X24" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="Z24" s="6" t="s">
         <v>182</v>
       </c>
       <c r="AA24" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AB24" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="10"/>
       <c r="S25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" s="10"/>
-      <c r="X25" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AA25" s="4" t="s">
+      <c r="AA25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AB25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AA26" s="4" t="s">
+      <c r="AA26" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AB26" s="5" t="s">
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O27" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="10"/>
-      <c r="X27" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="Z27" s="5" t="s">
         <v>197</v>
       </c>
       <c r="AA27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" s="12"/>
-      <c r="X28" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AA28" s="6" t="s">
+      <c r="AA28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AB28" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="R29" s="12"/>
+      <c r="S29" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="S29" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="T29" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="X29" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3581,13 +3673,16 @@
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.77734375" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="5.77734375" style="1"/>
     <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
@@ -3599,612 +3694,627 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="19" t="s">
+        <v>260</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>234</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="G30" s="18" t="s">
         <v>248</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEC908-4B7C-4491-AB13-A5369D292ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="241">
   <si>
     <t>期号</t>
   </si>
@@ -152,465 +146,465 @@
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1348059</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>8203579</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>928601357</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>4013589</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>84023567</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>48932</t>
+  </si>
+  <si>
+    <t>01567</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26091483</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>97816</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>54138</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>48157</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>0936</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>374589</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>4078125</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>80713</t>
+  </si>
+  <si>
+    <t>24569</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>20145789</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5972</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>408569</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>20869</t>
+  </si>
+  <si>
+    <t>14537</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>80571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23469 </t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>75813</t>
+  </si>
+  <si>
+    <t>04629</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>91657</t>
+  </si>
+  <si>
+    <t>02348</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>34678</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>318479</t>
+  </si>
+  <si>
+    <t>0256</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1348059</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8203579</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>928601357</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>4013589</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>84023567</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>48932</t>
-  </si>
-  <si>
-    <t>01567</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>26091483</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>97816</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>54138</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>48157</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>0936</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>044</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>374589</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>4078125</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>80713</t>
-  </si>
-  <si>
-    <t>24569</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>20145789</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>5972</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>408569</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2487</t>
-  </si>
-  <si>
-    <t>0365</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>20869</t>
-  </si>
-  <si>
-    <t>14537</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>80571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23469 </t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>75813</t>
-  </si>
-  <si>
-    <t>04629</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>91657</t>
-  </si>
-  <si>
-    <t>02348</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>34678</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>318479</t>
-  </si>
-  <si>
-    <t>0256</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>019</t>
   </si>
   <si>
@@ -620,6 +614,9 @@
     <t>336</t>
   </si>
   <si>
+    <t>665</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -632,9 +629,30 @@
     <t>337</t>
   </si>
   <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>578349</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
     <t>338</t>
   </si>
   <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>47059</t>
+  </si>
+  <si>
+    <t>12683</t>
+  </si>
+  <si>
     <t>339</t>
   </si>
   <si>
@@ -662,6 +680,9 @@
     <t>果冻</t>
   </si>
   <si>
+    <t>单尾</t>
+  </si>
+  <si>
     <t>胆码</t>
   </si>
   <si>
@@ -707,193 +728,29 @@
     <t>5尾</t>
   </si>
   <si>
+    <t>5-045</t>
+  </si>
+  <si>
+    <t>0-5967</t>
+  </si>
+  <si>
     <t>344</t>
   </si>
   <si>
     <t>345</t>
-  </si>
-  <si>
-    <t>665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>665</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>959</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>959</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>578349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-045</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单尾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-5967</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,28 +759,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,42 +924,228 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39982299264503923"/>
+        <fgColor theme="9" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79976805932798245"/>
+        <fgColor theme="9" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -987,11 +1153,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1026,45 +1434,74 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1322,31 +1759,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="AA30" sqref="D30 E30 H30 T30 Y30 Z30 AA30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="6.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" style="1"/>
+    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
+    <col min="22" max="23" width="6.775" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.66666666666667" style="1"/>
     <col min="25" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="4.6640625" style="1"/>
+    <col min="26" max="26" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.8" customHeight="1" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,73 +1932,73 @@
         <v>42</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-    </row>
-    <row r="3" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>38</v>
@@ -1573,13 +2010,13 @@
         <v>28</v>
       </c>
       <c r="S3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="U3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>42</v>
@@ -1589,30 +2026,30 @@
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="6" t="s">
+    </row>
+    <row r="4" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>42</v>
@@ -1633,25 +2070,25 @@
         <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>33</v>
@@ -1660,37 +2097,37 @@
         <v>28</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>28</v>
@@ -1702,7 +2139,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>34</v>
@@ -1726,16 +2163,16 @@
         <v>31</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>28</v>
@@ -1745,36 +2182,36 @@
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>32</v>
@@ -1783,19 +2220,19 @@
         <v>38</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>28</v>
@@ -1804,55 +2241,55 @@
         <v>31</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:26">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>28</v>
@@ -1867,13 +2304,13 @@
         <v>34</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>42</v>
@@ -1882,13 +2319,13 @@
         <v>31</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>28</v>
@@ -1901,27 +2338,27 @@
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
@@ -1930,13 +2367,13 @@
         <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>42</v>
@@ -1945,13 +2382,13 @@
         <v>34</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>38</v>
@@ -1963,43 +2400,43 @@
         <v>31</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>28</v>
@@ -2008,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>28</v>
@@ -2023,31 +2460,31 @@
         <v>42</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>39</v>
@@ -2057,24 +2494,24 @@
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Z9" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>29</v>
@@ -2101,23 +2538,23 @@
         <v>28</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>29</v>
@@ -2133,45 +2570,45 @@
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>28</v>
@@ -2179,20 +2616,20 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="4" t="s">
@@ -2202,33 +2639,33 @@
         <v>32</v>
       </c>
       <c r="Y11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" customHeight="1" spans="1:25">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>34</v>
@@ -2244,10 +2681,10 @@
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>38</v>
@@ -2259,10 +2696,10 @@
         <v>38</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="4" t="s">
@@ -2272,31 +2709,31 @@
         <v>32</v>
       </c>
       <c r="Y12" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" spans="1:25">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>34</v>
@@ -2311,31 +2748,31 @@
         <v>38</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>39</v>
@@ -2344,15 +2781,15 @@
         <v>28</v>
       </c>
       <c r="Y13" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" spans="1:25">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -2361,32 +2798,32 @@
         <v>40</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>35</v>
@@ -2401,13 +2838,13 @@
         <v>32</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>31</v>
@@ -2416,36 +2853,36 @@
         <v>39</v>
       </c>
       <c r="Y14" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>39</v>
@@ -2454,72 +2891,72 @@
         <v>34</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" spans="1:27">
+      <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>42</v>
@@ -2528,19 +2965,19 @@
         <v>32</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>38</v>
@@ -2552,10 +2989,10 @@
         <v>28</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>28</v>
@@ -2564,33 +3001,33 @@
         <v>42</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:26">
       <c r="A17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>31</v>
@@ -2605,7 +3042,7 @@
         <v>31</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>42</v>
@@ -2614,19 +3051,19 @@
         <v>38</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>39</v>
@@ -2647,36 +3084,36 @@
         <v>32</v>
       </c>
       <c r="Y17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" spans="1:26">
+      <c r="A18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Z17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>31</v>
@@ -2688,16 +3125,16 @@
         <v>31</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>31</v>
@@ -2709,13 +3146,13 @@
         <v>39</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>28</v>
@@ -2724,36 +3161,36 @@
         <v>31</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:26">
       <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>28</v>
@@ -2771,10 +3208,10 @@
         <v>29</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>38</v>
@@ -2783,45 +3220,45 @@
         <v>31</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:27">
       <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>28</v>
@@ -2839,19 +3276,19 @@
         <v>38</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>38</v>
@@ -2863,36 +3300,36 @@
         <v>28</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z20" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="AA20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:26">
       <c r="A21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>34</v>
@@ -2901,7 +3338,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>28</v>
@@ -2910,10 +3347,10 @@
         <v>42</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>42</v>
@@ -2925,13 +3362,13 @@
         <v>31</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>38</v>
@@ -2943,10 +3380,10 @@
         <v>28</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>28</v>
@@ -2958,27 +3395,27 @@
         <v>42</v>
       </c>
       <c r="Y21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="Z21" s="4" t="s">
+    </row>
+    <row r="22" ht="13.8" customHeight="1" spans="1:27">
+      <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>34</v>
@@ -2987,7 +3424,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>34</v>
@@ -3002,13 +3439,13 @@
         <v>28</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>28</v>
@@ -3020,10 +3457,10 @@
         <v>28</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U22" s="4" t="s">
         <v>28</v>
@@ -3032,42 +3469,42 @@
         <v>39</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="AA22" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:27">
       <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>38</v>
@@ -3082,61 +3519,61 @@
         <v>28</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="V23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="Y23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z23" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>31</v>
@@ -3154,14 +3591,14 @@
         <v>42</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>37</v>
@@ -3170,17 +3607,17 @@
         <v>31</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R24" s="10"/>
       <c r="S24" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>32</v>
@@ -3189,30 +3626,30 @@
         <v>31</v>
       </c>
       <c r="Y24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z24" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z24" s="6" t="s">
+      <c r="AA24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AA24" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>38</v>
@@ -3234,13 +3671,13 @@
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="4" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>31</v>
@@ -3256,48 +3693,48 @@
         <v>34</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z25" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Z25" s="4" t="s">
+      <c r="AA25" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AA25" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>34</v>
@@ -3315,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>28</v>
@@ -3343,30 +3780,30 @@
         <v>32</v>
       </c>
       <c r="Y26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z26" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>38</v>
@@ -3375,16 +3812,16 @@
         <v>34</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>31</v>
@@ -3393,10 +3830,10 @@
         <v>36</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>31</v>
@@ -3406,7 +3843,7 @@
       </c>
       <c r="R27" s="10"/>
       <c r="S27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>38</v>
@@ -3415,7 +3852,7 @@
         <v>38</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W27" s="5" t="s">
         <v>38</v>
@@ -3430,21 +3867,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>231</v>
+      <c r="B28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>38</v>
@@ -3453,28 +3890,28 @@
         <v>34</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>241</v>
+      <c r="L28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>31</v>
@@ -3482,9 +3919,9 @@
       <c r="Q28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="10"/>
       <c r="S28" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>34</v>
@@ -3493,245 +3930,272 @@
         <v>38</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="V29" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="W29" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z29" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA29" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA29" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q30" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="T30" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA30" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.77734375" style="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="2" width="5.775" style="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.775" style="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="19" t="s">
-        <v>260</v>
+      <c r="E2" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3739,39 +4203,39 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>40</v>
@@ -3779,127 +4243,127 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>37</v>
@@ -3913,15 +4377,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -3935,40 +4399,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3976,109 +4440,109 @@
         <v>38</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>38</v>
@@ -4087,106 +4551,106 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>29</v>
@@ -4195,126 +4659,129 @@
         <v>28</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>232</v>
+      <c r="B29" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>233</v>
+        <v>63</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0F376-8D32-4725-AC59-BE307EBF9267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="7740" yWindow="1116" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="253">
   <si>
     <t>期号</t>
   </si>
@@ -738,19 +744,61 @@
   </si>
   <si>
     <t>345</t>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,151 +807,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,228 +849,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
+        <fgColor theme="9" tint="0.39979247413556324"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799768059327982"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79973754081850645"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1153,253 +892,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1446,62 +943,24 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1759,31 +1218,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA30" sqref="D30 E30 H30 T30 Y30 Z30 AA30"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
-    <col min="22" max="23" width="6.775" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.66666666666667" style="1"/>
+    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="6.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" style="1"/>
     <col min="25" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="4.66666666666667" style="1"/>
+    <col min="26" max="26" width="9.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:27">
+    <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:41">
+    <row r="2" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +1416,7 @@
       <c r="AN2" s="15"/>
       <c r="AO2" s="15"/>
     </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:26">
+    <row r="3" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:26">
+    <row r="4" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -2110,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:26">
+    <row r="5" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2188,7 +1647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:26">
+    <row r="6" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2266,7 +1725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:26">
+    <row r="7" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -2344,7 +1803,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:26">
+    <row r="8" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -2422,7 +1881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:26">
+    <row r="9" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -2500,7 +1959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:26">
+    <row r="10" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2576,7 +2035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:25">
+    <row r="11" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -2642,7 +2101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:25">
+    <row r="12" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2712,7 +2171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:25">
+    <row r="13" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -2784,7 +2243,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:25">
+    <row r="14" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
@@ -2856,7 +2315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:26">
+    <row r="15" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -2933,7 +2392,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:27">
+    <row r="16" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
@@ -3013,7 +2472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:26">
+    <row r="17" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -3090,7 +2549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:26">
+    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -3167,7 +2626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:26">
+    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
@@ -3244,7 +2703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:27">
+    <row r="20" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -3324,7 +2783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:26">
+    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
@@ -3401,7 +2860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:27">
+    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -3481,7 +2940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:27">
+    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -3559,7 +3018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -3635,7 +3094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -3711,7 +3170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>186</v>
       </c>
@@ -3789,7 +3248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>192</v>
       </c>
@@ -3867,7 +3326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
@@ -3945,7 +3404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -4023,7 +3482,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -4099,61 +3558,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="D31" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="W31" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.775" style="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.775" style="1"/>
-    <col min="5" max="5" width="10.8833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.775" style="1"/>
-    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.775" style="1"/>
+    <col min="1" max="2" width="5.77734375" style="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:10">
+    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,19 +3669,19 @@
       <c r="C1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="3:10">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -4195,7 +3701,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -4211,7 +3717,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +3733,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -4243,7 +3749,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -4259,7 +3765,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,7 +3781,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -4291,7 +3797,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -4307,7 +3813,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -4323,7 +3829,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -4339,7 +3845,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -4355,7 +3861,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -4377,7 +3883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -4399,7 +3905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>126</v>
       </c>
@@ -4421,7 +3927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -4443,7 +3949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -4465,7 +3971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -4488,7 +3994,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -4505,7 +4011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4531,7 +4037,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -4551,7 +4057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -4565,7 +4071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>166</v>
       </c>
@@ -4579,7 +4085,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -4599,7 +4105,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>178</v>
       </c>
@@ -4622,7 +4128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
@@ -4642,7 +4148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
@@ -4662,7 +4168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
@@ -4680,7 +4186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4703,7 +4209,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -4720,7 +4226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
@@ -4737,40 +4243,43 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="D32" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="AB32" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>240</v>
       </c>
@@ -4780,8 +4289,8 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0F376-8D32-4725-AC59-BE307EBF9267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1116" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="243">
   <si>
     <t>期号</t>
   </si>
@@ -662,6 +656,15 @@
     <t>339</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>1234756</t>
+  </si>
+  <si>
     <t>340</t>
   </si>
   <si>
@@ -701,9 +704,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>770,158,239</t>
   </si>
   <si>
@@ -744,61 +744,19 @@
   </si>
   <si>
     <t>345</t>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,28 +765,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,42 +930,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39979247413556324"/>
+        <fgColor theme="9" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.799737540818506"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79973754081850645"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -892,11 +1153,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -940,27 +1443,62 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,31 +1756,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="6.77734375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" style="1"/>
+    <col min="1" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88333333333333" style="1" customWidth="1"/>
+    <col min="22" max="23" width="6.775" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.66666666666667" style="1"/>
     <col min="25" max="25" width="9" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="4.6640625" style="1"/>
+    <col min="26" max="26" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.8" customHeight="1" spans="1:41">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1400,23 +1938,23 @@
       <c r="Z2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-    </row>
-    <row r="3" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1491,7 +2029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.8" customHeight="1" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1569,7 +2107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.8" customHeight="1" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -1647,7 +2185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.8" customHeight="1" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1725,7 +2263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -1803,7 +2341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" customHeight="1" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1881,7 +2419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" customHeight="1" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -1959,7 +2497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.8" customHeight="1" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2035,7 +2573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -2101,7 +2639,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" customHeight="1" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2171,7 +2709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" customHeight="1" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
@@ -2243,7 +2781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" customHeight="1" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
@@ -2315,7 +2853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" customHeight="1" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -2392,7 +2930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
@@ -2472,7 +3010,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>143</v>
       </c>
@@ -2549,7 +3087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" customHeight="1" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -2626,7 +3164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
@@ -2703,7 +3241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:27">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2783,7 +3321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:26">
       <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
@@ -2860,7 +3398,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" customHeight="1" spans="1:27">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -2940,7 +3478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:27">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -3018,7 +3556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -3094,7 +3632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -3170,7 +3708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
         <v>186</v>
       </c>
@@ -3248,7 +3786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
         <v>192</v>
       </c>
@@ -3326,7 +3864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
@@ -3404,7 +3942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -3482,7 +4020,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -3534,7 +4072,7 @@
       <c r="Q30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="14"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="4" t="s">
         <v>61</v>
       </c>
@@ -3544,7 +4082,7 @@
       <c r="U30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V30" s="14"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="4" t="s">
         <v>39</v>
       </c>
@@ -3558,150 +4096,169 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="P31" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="S31" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="T31" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="W31" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="5.77734375" style="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="2" width="5.775" style="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.775" style="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.10833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.775" style="1"/>
+    <col min="10" max="10" width="11.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="5.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>221</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3709,7 +4266,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>175</v>
@@ -3717,7 +4274,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3733,7 +4290,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -3749,7 +4306,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
@@ -3765,7 +4322,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -3781,7 +4338,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -3797,7 +4354,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
@@ -3813,7 +4370,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -3829,7 +4386,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3845,7 +4402,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -3861,7 +4418,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -3883,7 +4440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -3905,7 +4462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>126</v>
       </c>
@@ -3927,7 +4484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -3949,7 +4506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -3971,7 +4528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -3991,10 +4548,10 @@
         <v>200</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -4011,7 +4568,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4034,10 +4591,10 @@
         <v>38</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -4057,7 +4614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -4071,7 +4628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>166</v>
       </c>
@@ -4085,7 +4642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -4102,10 +4659,10 @@
         <v>102</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>178</v>
       </c>
@@ -4119,16 +4676,16 @@
         <v>102</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
@@ -4145,10 +4702,10 @@
         <v>72</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>186</v>
       </c>
@@ -4165,10 +4722,10 @@
         <v>28</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
@@ -4183,10 +4740,10 @@
         <v>31</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4206,10 +4763,10 @@
         <v>34</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -4226,7 +4783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
@@ -4234,54 +4791,54 @@
         <v>209</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>252</v>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4289,8 +4846,8 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680DDBA3-96A4-4F5A-9926-7A2290313957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CA857-2DA8-47F5-A64A-A548E7E08748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="888" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="346">
   <si>
     <t>期号</t>
   </si>
@@ -1045,10 +1045,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>56</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1118,6 +1114,38 @@
   </si>
   <si>
     <t>23670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1554,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3951,10 +3979,10 @@
         <v>216</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>299</v>
@@ -4022,70 +4050,85 @@
       <c r="A35" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="B35" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="G35" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="M35" s="15" t="s">
+      <c r="N35" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="O35" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="P35" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="Q35" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="R35" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="S35" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="S35" s="15" t="s">
+      <c r="U35" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="W35" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="U35" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="W35" s="15" t="s">
+      <c r="X35" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="X35" s="15" t="s">
+      <c r="Y35" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="Y35" s="15" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4174,24 +4217,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.77734375" style="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4213,7 +4248,7 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -4233,7 +4268,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4249,7 +4284,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -4265,7 +4300,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -4281,7 +4316,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -4297,7 +4332,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -4313,7 +4348,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -4329,7 +4364,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -4345,7 +4380,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -4361,7 +4396,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -4377,7 +4412,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -4393,7 +4428,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -4415,7 +4450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -4437,7 +4472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -4459,7 +4494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4481,7 +4516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -4503,7 +4538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -4526,7 +4561,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -4543,7 +4578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -4569,7 +4604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4589,7 +4624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -4603,7 +4638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -4617,7 +4652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>170</v>
       </c>
@@ -4637,7 +4672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -4660,7 +4695,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -4680,7 +4715,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
@@ -4700,7 +4735,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -4718,7 +4753,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>196</v>
       </c>
@@ -4741,7 +4776,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
@@ -4758,7 +4793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>206</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
@@ -4789,7 +4824,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>214</v>
       </c>
@@ -4803,7 +4838,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>215</v>
       </c>
@@ -4817,12 +4852,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>297</v>
@@ -4831,35 +4866,41 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="E36" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>240</v>
       </c>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CA857-2DA8-47F5-A64A-A548E7E08748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173124CD-C51C-4482-8F7D-5CCD2EFF27DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="888" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3528" yWindow="264" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="359">
   <si>
     <t>期号</t>
   </si>
@@ -1129,28 +1129,80 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,17</t>
+    <t>538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>538</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>538</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,10,14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,8 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4051,10 +4104,10 @@
         <v>217</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>322</v>
@@ -4122,13 +4175,49 @@
         <v>239</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>345</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -4215,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4870,6 +4959,9 @@
       <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B36" s="15" t="s">
+        <v>356</v>
+      </c>
       <c r="C36" s="16" t="s">
         <v>314</v>
       </c>
@@ -4893,16 +4985,84 @@
       <c r="A37" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="C37" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" s="15" t="s">
         <v>338</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173124CD-C51C-4482-8F7D-5CCD2EFF27DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3528" yWindow="264" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="276">
   <si>
     <t>期号</t>
   </si>
@@ -656,6 +650,9 @@
     <t>339</t>
   </si>
   <si>
+    <t>602</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -668,15 +665,105 @@
     <t>340</t>
   </si>
   <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>80245</t>
+  </si>
+  <si>
+    <t>13796</t>
+  </si>
+  <si>
     <t>341</t>
   </si>
   <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>3467298</t>
+  </si>
+  <si>
     <t>342</t>
   </si>
   <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80123</t>
+  </si>
+  <si>
+    <t>76459</t>
+  </si>
+  <si>
     <t>343</t>
   </si>
   <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>23670</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>4035</t>
+  </si>
+  <si>
+    <t>126789</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -740,476 +827,35 @@
     <t>0-5967</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13796</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3467298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>802</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-35-235</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16</t>
   </si>
   <si>
     <t>7-47</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>447 457 467 477</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>789</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1948</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23670</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>538</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>538</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>18,10,14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>546</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,28 +864,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,36 +1029,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39976195562608724"/>
+        <fgColor theme="9" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79970702230903046"/>
+        <fgColor theme="9" tint="0.79970702230903"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1297,11 +1252,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1345,30 +1542,62 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1626,32 +1855,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="X36" sqref="E36:H36 J36:K36 M36:S36 U36 W36 X36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="18" width="6.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" style="1"/>
+    <col min="1" max="18" width="6.775" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.775" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.66666666666667" style="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="4.6640625" style="1"/>
+    <col min="24" max="24" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.8" customHeight="1" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +2043,7 @@
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
     </row>
-    <row r="3" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="13.8" customHeight="1" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1882,7 +2112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.8" customHeight="1" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1954,7 +2184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.8" customHeight="1" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -2026,7 +2256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.8" customHeight="1" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2098,7 +2328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2170,7 +2400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" customHeight="1" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -2242,7 +2472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" customHeight="1" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -2314,7 +2544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.8" customHeight="1" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -2386,7 +2616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2446,7 +2676,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" customHeight="1" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -2510,7 +2740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" customHeight="1" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +2806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" customHeight="1" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2642,7 +2872,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" customHeight="1" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -2713,7 +2943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>137</v>
       </c>
@@ -2787,7 +3017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -2858,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" customHeight="1" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -2929,7 +3159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -3000,7 +3230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
@@ -3074,7 +3304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -3145,7 +3375,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" customHeight="1" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -3219,7 +3449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -3293,7 +3523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -3365,7 +3595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -3437,7 +3667,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
         <v>184</v>
       </c>
@@ -3511,7 +3741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
         <v>190</v>
       </c>
@@ -3585,7 +3815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
         <v>196</v>
       </c>
@@ -3659,7 +3889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
         <v>201</v>
       </c>
@@ -3733,7 +3963,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
@@ -3807,15 +4037,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>242</v>
+      <c r="B31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>76</v>
@@ -3830,7 +4060,7 @@
         <v>49</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>37</v>
@@ -3872,492 +4102,511 @@
         <v>29</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y31" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="R32" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="S32" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="T32" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="W32" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="X32" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>283</v>
+        <v>219</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="T33" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y33" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>304</v>
+        <v>222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="R34" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="S34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="T34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="U34" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="W34" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="X34" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="R35" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="S35" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="U35" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q36" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="R36" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="S36" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="U36" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="X36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J37" sqref="E37 G37 J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="16384" width="10.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="18"/>
+        <v>250</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="3:10">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4365,7 +4614,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>173</v>
@@ -4373,7 +4622,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -4389,7 +4638,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -4405,7 +4654,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4670,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -4437,7 +4686,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -4453,7 +4702,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -4469,7 +4718,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -4485,7 +4734,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -4501,7 +4750,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -4517,7 +4766,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -4539,7 +4788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -4561,7 +4810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -4583,7 +4832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4605,7 +4854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -4627,7 +4876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -4647,10 +4896,10 @@
         <v>198</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -4667,7 +4916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -4690,10 +4939,10 @@
         <v>36</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4713,7 +4962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -4727,7 +4976,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -4741,7 +4990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>170</v>
       </c>
@@ -4758,10 +5007,10 @@
         <v>100</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -4775,16 +5024,16 @@
         <v>100</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -4801,10 +5050,10 @@
         <v>70</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
@@ -4821,10 +5070,10 @@
         <v>26</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -4839,10 +5088,10 @@
         <v>29</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>196</v>
       </c>
@@ -4862,10 +5111,10 @@
         <v>32</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
@@ -4882,7 +5131,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>206</v>
       </c>
@@ -4890,179 +5139,185 @@
         <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>243</v>
+      <c r="B32" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AB32" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5070,8 +5325,8 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="280">
   <si>
     <t>期号</t>
   </si>
@@ -725,6 +725,15 @@
     <t>345</t>
   </si>
   <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>0824693</t>
+  </si>
+  <si>
     <t>346</t>
   </si>
   <si>
@@ -843,6 +852,9 @@
   </si>
   <si>
     <t>546</t>
+  </si>
+  <si>
+    <t>17,16,9</t>
   </si>
 </sst>
 </file>
@@ -850,10 +862,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -872,29 +884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,14 +899,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,39 +920,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,25 +989,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1005,6 +1001,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1059,13 +1071,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,31 +1137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,13 +1167,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,49 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,49 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,52 +1268,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1290,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1336,17 +1334,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,10 +1368,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,7 +1380,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,124 +1389,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,7 +1878,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X36" sqref="E36:H36 J36:K36 M36:S36 U36 W36 X36"/>
+      <selection pane="bottomLeft" activeCell="U37" sqref="E37:F37 H37:K37 N37 P37:S37 U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
@@ -4468,24 +4480,84 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -4495,52 +4567,52 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4555,8 +4627,8 @@
   <sheetPr/>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J37" sqref="E37 G37 J37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
@@ -4569,18 +4641,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -4590,20 +4662,20 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -4896,7 +4968,7 @@
         <v>198</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -4939,7 +5011,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
@@ -5007,7 +5079,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
@@ -5024,13 +5096,13 @@
         <v>100</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:10">
@@ -5050,7 +5122,7 @@
         <v>70</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:10">
@@ -5070,7 +5142,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:10">
@@ -5088,7 +5160,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
@@ -5111,7 +5183,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -5139,13 +5211,13 @@
         <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:28">
@@ -5159,7 +5231,7 @@
         <v>28</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -5212,28 +5284,31 @@
         <v>228</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -5241,33 +5316,45 @@
         <v>27</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
@@ -5277,47 +5364,47 @@
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A673B87-8FE4-467C-8970-45012D5377C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="327">
   <si>
     <t>期号</t>
   </si>
@@ -855,19 +861,201 @@
   </si>
   <si>
     <t>17,16,9</t>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>164</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>582379</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023,366 447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>472</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>924</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0153768</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,151 +1064,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,222 +1106,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399761955626087"/>
+        <fgColor theme="9" tint="0.39973143711661124"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399884029663991"/>
+        <fgColor theme="9" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79970702230903"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.79967650379955446"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1264,253 +1143,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,62 +1191,33 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1867,33 +1475,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="U37" sqref="E37:F37 H37:K37 N37 P37:S37 U37"/>
+      <selection pane="bottomLeft" activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="6.775" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.775" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.66666666666667" style="1"/>
+    <col min="1" max="18" width="6.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" style="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="4.66666666666667" style="1"/>
+    <col min="24" max="24" width="9.44140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:25">
+    <row r="1" spans="1:39" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +1575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:39">
+    <row r="2" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +1662,7 @@
       <c r="AL2" s="14"/>
       <c r="AM2" s="14"/>
     </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:24">
+    <row r="3" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +1731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:24">
+    <row r="4" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -2196,7 +1803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:24">
+    <row r="5" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -2268,7 +1875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:24">
+    <row r="6" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -2340,7 +1947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:24">
+    <row r="7" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2412,7 +2019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:24">
+    <row r="8" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -2484,7 +2091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:24">
+    <row r="9" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -2556,7 +2163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:24">
+    <row r="10" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -2628,7 +2235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:23">
+    <row r="11" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2688,7 +2295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:23">
+    <row r="12" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -2752,7 +2359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:23">
+    <row r="13" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -2818,7 +2425,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:23">
+    <row r="14" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
@@ -2884,7 +2491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:24">
+    <row r="15" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -2955,7 +2562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:25">
+    <row r="16" spans="1:39" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>137</v>
       </c>
@@ -3029,7 +2636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:24">
+    <row r="17" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -3100,7 +2707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:24">
+    <row r="18" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -3171,7 +2778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:24">
+    <row r="19" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -3242,7 +2849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:25">
+    <row r="20" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
@@ -3316,7 +2923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:24">
+    <row r="21" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -3387,7 +2994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:25">
+    <row r="22" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -3461,7 +3068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:25">
+    <row r="23" spans="1:25" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -3535,7 +3142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -3607,7 +3214,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -3679,7 +3286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>184</v>
       </c>
@@ -3753,7 +3360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>190</v>
       </c>
@@ -3827,7 +3434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>196</v>
       </c>
@@ -3901,7 +3508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>201</v>
       </c>
@@ -3975,7 +3582,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
@@ -4049,7 +3656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -4123,7 +3730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
@@ -4197,7 +3804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>219</v>
       </c>
@@ -4269,7 +3876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>222</v>
       </c>
@@ -4341,7 +3948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>227</v>
       </c>
@@ -4399,6 +4006,7 @@
       <c r="S35" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="T35" s="10"/>
       <c r="U35" s="4" t="s">
         <v>26</v>
       </c>
@@ -4412,7 +4020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
       </c>
@@ -4446,6 +4054,7 @@
       <c r="K36" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="4" t="s">
         <v>86</v>
       </c>
@@ -4467,6 +4076,7 @@
       <c r="S36" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="T36" s="10"/>
       <c r="U36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4480,7 +4090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>235</v>
       </c>
@@ -4514,12 +4124,16 @@
       <c r="K37" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="7" t="s">
         <v>118</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="O37" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="P37" s="6" t="s">
         <v>26</v>
       </c>
@@ -4532,6 +4146,7 @@
       <c r="S37" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="T37" s="10"/>
       <c r="U37" s="6" t="s">
         <v>36</v>
       </c>
@@ -4545,98 +4160,225 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="T38" s="10"/>
+      <c r="U38" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="T39" s="10"/>
+      <c r="U39" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" activeCellId="3" sqref="D40:E40 H40 I40 J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.775" style="1"/>
+    <col min="1" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4646,19 +4388,19 @@
       <c r="C1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="3:10">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
@@ -4678,7 +4420,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -4694,7 +4436,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -4710,7 +4452,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -4726,7 +4468,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -4742,7 +4484,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
@@ -4758,7 +4500,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -4774,7 +4516,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -4790,7 +4532,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -4806,7 +4548,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -4822,7 +4564,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -4838,7 +4580,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customHeight="1" spans="1:8">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -4860,7 +4602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:8">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
@@ -4882,7 +4624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:8">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -4904,7 +4646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:8">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -4926,7 +4668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
@@ -4948,7 +4690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>141</v>
       </c>
@@ -4971,7 +4713,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
@@ -4988,7 +4730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -5014,7 +4756,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:8">
+    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5034,7 +4776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -5048,7 +4790,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -5062,7 +4804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>170</v>
       </c>
@@ -5082,7 +4824,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>176</v>
       </c>
@@ -5105,7 +4847,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -5125,7 +4867,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
@@ -5145,7 +4887,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -5163,7 +4905,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:9">
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>196</v>
       </c>
@@ -5186,7 +4928,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
@@ -5203,7 +4945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>206</v>
       </c>
@@ -5220,7 +4962,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:28">
+    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
@@ -5234,7 +4976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>215</v>
       </c>
@@ -5248,7 +4990,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
@@ -5262,7 +5004,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>222</v>
       </c>
@@ -5276,7 +5018,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:10">
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>227</v>
       </c>
@@ -5302,7 +5044,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:10">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
@@ -5325,7 +5067,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>235</v>
       </c>
@@ -5342,67 +5084,100 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:1">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:1">
+      <c r="B39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:1">
+      <c r="B40" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:1">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:1">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:1">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:1">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:1">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:1">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:1">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:1">
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:1">
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:1">
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>250</v>
       </c>
@@ -5412,8 +5187,8 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="298">
   <si>
     <t>期号</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>278356</t>
+  </si>
+  <si>
+    <t>878</t>
   </si>
   <si>
     <t>40237</t>
@@ -914,9 +917,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -929,43 +932,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -985,9 +951,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,9 +968,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,15 +1015,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,9 +1029,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,7 +1060,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1057,15 +1068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,37 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,7 +1149,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,7 +1185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,13 +1257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,37 +1287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,25 +1305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,11 +1319,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,32 +1393,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,36 +1416,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1431,19 +1434,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,112 +1455,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1926,10 +1929,10 @@
   <sheetPr/>
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomLeft" activeCell="U41" sqref="H41:I41 P41 U41:W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
@@ -4605,112 +4608,118 @@
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="1" t="s">
+      <c r="K41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V41" s="1" t="s">
+      <c r="U41" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="V41" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="W41" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4725,8 +4734,8 @@
   <sheetPr/>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
@@ -4739,18 +4748,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -4760,20 +4769,20 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -5066,7 +5075,7 @@
         <v>196</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
@@ -5109,7 +5118,7 @@
         <v>33</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
@@ -5177,7 +5186,7 @@
         <v>98</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:10">
@@ -5194,13 +5203,13 @@
         <v>98</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:10">
@@ -5220,7 +5229,7 @@
         <v>68</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:10">
@@ -5240,7 +5249,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:10">
@@ -5258,7 +5267,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
@@ -5281,7 +5290,7 @@
         <v>67</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
@@ -5309,13 +5318,13 @@
         <v>205</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:28">
@@ -5329,7 +5338,7 @@
         <v>26</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -5382,22 +5391,22 @@
         <v>226</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:10">
@@ -5414,13 +5423,13 @@
         <v>25</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:5">
@@ -5437,7 +5446,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:5">
@@ -5454,7 +5463,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:10">
@@ -5471,7 +5480,7 @@
         <v>210</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>28</v>
@@ -5480,7 +5489,7 @@
         <v>34</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:10">
@@ -5503,75 +5512,78 @@
         <v>45</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="G42" s="6" t="s">
         <v>296</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D669C46-5CE6-42AC-AFEC-EC782E420CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="2688" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="374">
   <si>
     <t>期号</t>
   </si>
@@ -782,30 +788,6 @@
     <t>351</t>
   </si>
   <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -815,113 +797,444 @@
     <t>羊姐</t>
   </si>
   <si>
-    <t>果冻</t>
-  </si>
-  <si>
-    <t>单尾</t>
-  </si>
-  <si>
-    <t>胆码</t>
-  </si>
-  <si>
-    <t>跨度</t>
-  </si>
-  <si>
-    <t>和</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>770,158,239</t>
-  </si>
-  <si>
-    <t>226,569</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>6-26</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>039,059</t>
-  </si>
-  <si>
-    <t>5尾</t>
-  </si>
-  <si>
     <t>5-045</t>
   </si>
   <si>
-    <t>0-5967</t>
-  </si>
-  <si>
     <t>5-35-235</t>
   </si>
   <si>
-    <t>15,16</t>
-  </si>
-  <si>
-    <t>7-47</t>
-  </si>
-  <si>
-    <t>447 457 467 477</t>
-  </si>
-  <si>
-    <t>18,10,14</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>17,16,9</t>
-  </si>
-  <si>
-    <t>14,16</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>023,366 447</t>
-  </si>
-  <si>
-    <t>867,722</t>
-  </si>
-  <si>
-    <t>5,16</t>
-  </si>
-  <si>
-    <t>1-18</t>
-  </si>
-  <si>
-    <t>810</t>
+    <t>290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1690247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2351478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4693582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>9-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,151 +1243,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,222 +1279,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399731437116611"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399853511154515"/>
+        <fgColor theme="9" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79964598529007846"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1318,253 +1304,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1587,83 +1331,45 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1921,32 +1627,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AK51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="U41" sqref="H41:I41 P41 U41:W41"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="6.775" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.66666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.775" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.66666666666667" style="1"/>
+    <col min="1" max="17" width="6.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="1"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="4.66666666666667" style="1"/>
+    <col min="22" max="22" width="9.44140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:23">
+    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +1709,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2015,7 +1720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:37">
+    <row r="2" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2080,23 +1785,23 @@
       <c r="V2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-    </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:22">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+    </row>
+    <row r="3" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +1856,7 @@
       <c r="S3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="6" t="s">
         <v>52</v>
       </c>
@@ -2159,7 +1864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:22">
+    <row r="4" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2225,7 +1930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:22">
+    <row r="5" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2291,7 +1996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:22">
+    <row r="6" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2349,7 +2054,7 @@
       <c r="S6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="13"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2357,7 +2062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:22">
+    <row r="7" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2415,7 +2120,7 @@
       <c r="S7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="13"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="4" t="s">
         <v>86</v>
       </c>
@@ -2423,7 +2128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:22">
+    <row r="8" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2481,7 +2186,7 @@
       <c r="S8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="13"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="5" t="s">
         <v>94</v>
       </c>
@@ -2489,7 +2194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:22">
+    <row r="9" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -2547,7 +2252,7 @@
       <c r="S9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="13"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2555,7 +2260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:22">
+    <row r="10" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -2613,7 +2318,7 @@
       <c r="S10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="13"/>
+      <c r="T10" s="11"/>
       <c r="U10" s="4" t="s">
         <v>106</v>
       </c>
@@ -2621,7 +2326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:21">
+    <row r="11" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -2655,12 +2360,12 @@
       <c r="K11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="4" t="s">
         <v>58</v>
       </c>
@@ -2677,7 +2382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:21">
+    <row r="12" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -2711,7 +2416,7 @@
       <c r="K12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="4" t="s">
         <v>48</v>
       </c>
@@ -2737,7 +2442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:21">
+    <row r="13" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
@@ -2756,7 +2461,7 @@
       <c r="F13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4" t="s">
         <v>79</v>
       </c>
@@ -2797,7 +2502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:21">
+    <row r="14" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -2816,7 +2521,7 @@
       <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4" t="s">
         <v>124</v>
       </c>
@@ -2857,7 +2562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:22">
+    <row r="15" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -2922,7 +2627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:23">
+    <row r="16" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -2990,7 +2695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:22">
+    <row r="17" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -3055,7 +2760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:22">
+    <row r="18" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
@@ -3120,7 +2825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:22">
+    <row r="19" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
@@ -3185,7 +2890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:23">
+    <row r="20" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
@@ -3253,7 +2958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:22">
+    <row r="21" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -3318,7 +3023,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:23">
+    <row r="22" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -3386,7 +3091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:23">
+    <row r="23" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -3454,7 +3159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -3473,7 +3178,7 @@
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3522,7 +3227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -3590,7 +3295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>182</v>
       </c>
@@ -3658,7 +3363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -3726,7 +3431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -3760,7 +3465,7 @@
       <c r="K28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="10" t="s">
         <v>99</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -3794,7 +3499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
@@ -3862,7 +3567,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -3930,7 +3635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
@@ -3998,7 +3703,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
@@ -4066,7 +3771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
@@ -4097,7 +3802,7 @@
       <c r="J33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="10"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="5" t="s">
         <v>115</v>
       </c>
@@ -4132,7 +3837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
@@ -4163,7 +3868,7 @@
       <c r="J34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="4" t="s">
         <v>222</v>
       </c>
@@ -4198,7 +3903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
@@ -4266,7 +3971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>229</v>
       </c>
@@ -4334,7 +4039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>233</v>
       </c>
@@ -4402,7 +4107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>237</v>
       </c>
@@ -4424,7 +4129,7 @@
       <c r="G38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="4" t="s">
         <v>58</v>
       </c>
@@ -4468,7 +4173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
@@ -4536,7 +4241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
@@ -4604,7 +4309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -4617,8 +4322,8 @@
       <c r="D41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>33</v>
+      <c r="E41" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>37</v>
@@ -4672,927 +4377,1183 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="V42" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>262</v>
+      <c r="B43" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="V43" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="U44" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="V44" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="W44" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.775" style="1"/>
+    <col min="1" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="3:10">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E39" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:28">
-      <c r="A32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>261</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:J1"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D669C46-5CE6-42AC-AFEC-EC782E420CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="311">
   <si>
     <t>期号</t>
   </si>
@@ -785,9 +779,102 @@
     <t>350</t>
   </si>
   <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>1690247</t>
+  </si>
+  <si>
     <t>351</t>
   </si>
   <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>2351478</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>4693582</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>0578</t>
+  </si>
+  <si>
+    <t>461239</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
     <t>开奖号</t>
   </si>
   <si>
@@ -797,294 +884,46 @@
     <t>羊姐</t>
   </si>
   <si>
+    <t>5-045</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>5-045</t>
-  </si>
-  <si>
     <t>5-35-235</t>
   </si>
   <si>
-    <t>290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>385</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1690247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2351478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4693582</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>986</t>
   </si>
   <si>
     <t>022</t>
@@ -1108,133 +947,20 @@
     <t>028</t>
   </si>
   <si>
-    <t>029</t>
-  </si>
-  <si>
     <t>030</t>
-  </si>
-  <si>
-    <t>9-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>832</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>712</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>531</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,22 +969,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,24 +1134,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79964598529007846"/>
+        <fgColor theme="9" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1304,11 +1345,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,60 +1599,92 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1627,31 +1942,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="17" width="6.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.77734375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="1"/>
+    <col min="1" max="17" width="6.775" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.775" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.66666666666667" style="1"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="4.6640625" style="1"/>
+    <col min="22" max="22" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +2025,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.8" customHeight="1" spans="1:37">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1745,10 +2061,10 @@
       <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1769,20 +2085,20 @@
       <c r="P2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="7" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W2" s="12"/>
@@ -1801,7 +2117,7 @@
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
     </row>
-    <row r="3" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="13.8" customHeight="1" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1853,10 +2169,10 @@
       <c r="R3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="11"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="6" t="s">
         <v>52</v>
       </c>
@@ -1864,7 +2180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.8" customHeight="1" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1874,63 +2190,63 @@
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="4" t="s">
+      <c r="S4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="13.8" customHeight="1" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1940,63 +2256,63 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="13.8" customHeight="1" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -2006,63 +2322,63 @@
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="5" t="s">
+      <c r="T6" s="10"/>
+      <c r="U6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
@@ -2072,63 +2388,63 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="4" t="s">
+      <c r="S7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" customHeight="1" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2138,63 +2454,63 @@
       <c r="C8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="5" t="s">
+      <c r="S8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" customHeight="1" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -2204,63 +2520,63 @@
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="5" t="s">
+      <c r="S9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="V9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="13.8" customHeight="1" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -2270,63 +2586,63 @@
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="4" t="s">
+      <c r="T10" s="10"/>
+      <c r="U10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:21">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -2336,53 +2652,53 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="4" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="4" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" customHeight="1" spans="1:21">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -2392,57 +2708,57 @@
       <c r="C12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" customHeight="1" spans="1:21">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
@@ -2452,57 +2768,57 @@
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="4" t="s">
+      <c r="S13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" customHeight="1" spans="1:21">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -2512,57 +2828,57 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" customHeight="1" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
@@ -2572,62 +2888,62 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V15" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
@@ -2637,65 +2953,65 @@
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -2705,62 +3021,62 @@
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="V17" s="5" t="s">
+      <c r="V17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" customHeight="1" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
@@ -2770,62 +3086,62 @@
       <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
@@ -2835,62 +3151,62 @@
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
@@ -2900,65 +3216,65 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="W20" s="5" t="s">
+      <c r="W20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -2968,62 +3284,62 @@
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" customHeight="1" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -3033,65 +3349,65 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="4" t="s">
+      <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="W22" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:23">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
@@ -3104,49 +3420,49 @@
       <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="4" t="s">
+      <c r="O23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="U23" s="6" t="s">
@@ -3155,11 +3471,11 @@
       <c r="V23" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="W23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
@@ -3169,52 +3485,52 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="U24" s="6" t="s">
@@ -3227,7 +3543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
@@ -3237,65 +3553,65 @@
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="W25" s="5" t="s">
+      <c r="W25" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="1" t="s">
         <v>182</v>
       </c>
@@ -3305,65 +3621,65 @@
       <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="4" t="s">
+      <c r="O26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -3373,65 +3689,65 @@
       <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="W27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -3441,52 +3757,52 @@
       <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>105</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="U28" s="6" t="s">
@@ -3495,11 +3811,11 @@
       <c r="V28" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="W28" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
@@ -3509,65 +3825,65 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="W29" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
@@ -3577,65 +3893,65 @@
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>57</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="V30" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="W30" s="7" t="s">
+      <c r="W30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
@@ -3645,65 +3961,65 @@
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="K31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="W31" s="7" t="s">
+      <c r="W31" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
@@ -3713,65 +4029,65 @@
       <c r="C32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="4" t="s">
+      <c r="P32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="W32" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
@@ -3781,63 +4097,63 @@
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="5" t="s">
+      <c r="K33" s="7"/>
+      <c r="L33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="W33" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
@@ -3847,63 +4163,63 @@
       <c r="C34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="4" t="s">
+      <c r="K34" s="7"/>
+      <c r="L34" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P34" s="4" t="s">
+      <c r="O34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S34" s="4" t="s">
+      <c r="R34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="V34" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="W34" s="5" t="s">
+      <c r="W34" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
@@ -3913,65 +4229,65 @@
       <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="J35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="4" t="s">
+      <c r="S35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="V35" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="W35" s="5" t="s">
+      <c r="W35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23">
       <c r="A36" s="1" t="s">
         <v>229</v>
       </c>
@@ -3981,52 +4297,52 @@
       <c r="C36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="3" t="s">
         <v>147</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="U36" s="6" t="s">
@@ -4035,11 +4351,11 @@
       <c r="V36" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="W36" s="7" t="s">
+      <c r="W36" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23">
       <c r="A37" s="1" t="s">
         <v>233</v>
       </c>
@@ -4049,7 +4365,7 @@
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -4058,7 +4374,7 @@
       <c r="F37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H37" s="6" t="s">
@@ -4073,13 +4389,13 @@
       <c r="K37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="5" t="s">
         <v>116</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="O37" s="6" t="s">
@@ -4097,17 +4413,17 @@
       <c r="S37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="V37" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="W37" s="7" t="s">
+      <c r="W37" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23">
       <c r="A38" s="1" t="s">
         <v>237</v>
       </c>
@@ -4117,63 +4433,63 @@
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="4" t="s">
+      <c r="G38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="V38" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="W38" s="5" t="s">
+      <c r="W38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
@@ -4183,65 +4499,65 @@
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="V39" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="W39" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
@@ -4251,10 +4567,10 @@
       <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -4305,11 +4621,11 @@
       <c r="V40" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="W40" s="7" t="s">
+      <c r="W40" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
@@ -4322,8 +4638,8 @@
       <c r="D41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>264</v>
+      <c r="E41" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>37</v>
@@ -4331,10 +4647,10 @@
       <c r="G41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J41" s="6" t="s">
@@ -4355,7 +4671,7 @@
       <c r="O41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q41" s="6" t="s">
@@ -4367,1193 +4683,1204 @@
       <c r="S41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="V41" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="W41" s="7" t="s">
+      <c r="W41" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="B44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="W44" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="M42" s="14" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N42" s="14" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="O42" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="P42" s="14" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="Q42" s="14" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="R42" s="14" t="s">
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S42" s="14" t="s">
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="U42" s="14" t="s">
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="V42" s="14" t="s">
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="S43" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="U43" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="V43" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="S44" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="U44" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="V44" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="N45" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>335</v>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="16384" width="10.775" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>351</v>
+      <c r="E31" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="B44" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="13" t="s">
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+    </row>
+    <row r="73" customHeight="1" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="2" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D579B0-CF4D-4A49-B781-24C326ECD4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0DBE3-545A-49CD-A71E-EDDA9636ECD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="418">
   <si>
     <t>期号</t>
   </si>
@@ -1327,14 +1327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-68</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,6 +1384,14 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>268</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4830,7 +4830,7 @@
         <v>366</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>368</v>
@@ -4857,7 +4857,7 @@
         <v>373</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="R48" s="14" t="s">
         <v>368</v>
@@ -4866,7 +4866,7 @@
         <v>374</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>375</v>
@@ -4877,46 +4877,46 @@
         <v>270</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="H49" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="H49" s="13" t="s">
+      <c r="I49" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="K49" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="L49" s="13" t="s">
+      <c r="N49" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="M49" s="13" t="s">
+      <c r="P49" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="N49" s="13" t="s">
+      <c r="Q49" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="P49" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>416</v>
-      </c>
       <c r="R49" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5819,13 +5819,16 @@
         <v>270</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57A7A8F-E411-4FDD-991D-5E7A348CDDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="352">
   <si>
     <t>期号</t>
   </si>
@@ -1021,19 +1027,81 @@
   </si>
   <si>
     <t>030</t>
+  </si>
+  <si>
+    <t>296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,151 +1110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,210 +1146,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799615466780602"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.79958494827112647"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1418,253 +1171,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,62 +1216,24 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2018,33 +1491,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="AD57" sqref="AD57"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="6.775" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.66666666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.775" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.66666666666667" style="2"/>
+    <col min="1" max="16" width="6.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="2"/>
     <col min="20" max="20" width="9" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.44166666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.55" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="4.66666666666667" style="2"/>
+    <col min="21" max="21" width="9.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="4.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:22">
+    <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" spans="1:36">
+    <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2188,7 +1660,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="13.8" customHeight="1" spans="1:21">
+    <row r="3" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -2248,7 +1720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" spans="1:21">
+    <row r="4" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -2311,7 +1783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" spans="1:21">
+    <row r="5" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2374,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" spans="1:21">
+    <row r="6" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2437,7 +1909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" spans="1:21">
+    <row r="7" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -2500,7 +1972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" spans="1:21">
+    <row r="8" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -2563,7 +2035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" spans="1:21">
+    <row r="9" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2626,7 +2098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" spans="1:21">
+    <row r="10" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
@@ -2689,7 +2161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" spans="1:20">
+    <row r="11" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -2742,7 +2214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" spans="1:20">
+    <row r="12" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -2799,7 +2271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" spans="1:20">
+    <row r="13" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" spans="1:20">
+    <row r="14" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -2913,7 +2385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" spans="1:21">
+    <row r="15" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -2975,7 +2447,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" spans="1:22">
+    <row r="16" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
@@ -3040,7 +2512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" spans="1:21">
+    <row r="17" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -3102,7 +2574,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" spans="1:21">
+    <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
@@ -3164,7 +2636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" spans="1:21">
+    <row r="19" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -3226,7 +2698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" spans="1:22">
+    <row r="20" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -3291,7 +2763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" spans="1:21">
+    <row r="21" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -3353,7 +2825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" spans="1:22">
+    <row r="22" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -3418,7 +2890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" spans="1:22">
+    <row r="23" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -3483,7 +2955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
@@ -3548,7 +3020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -3613,7 +3085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -3678,7 +3150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -3743,7 +3215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
@@ -3808,7 +3280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
@@ -3873,7 +3345,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
@@ -3938,7 +3410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -4003,7 +3475,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -4068,7 +3540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
@@ -4131,7 +3603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -4194,7 +3666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -4259,7 +3731,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -4324,7 +3796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>232</v>
       </c>
@@ -4389,7 +3861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -4452,7 +3924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -4517,7 +3989,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -4582,7 +4054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>202</v>
       </c>
@@ -4647,7 +4119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
@@ -4709,7 +4181,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -4769,7 +4241,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
@@ -4834,7 +4306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>264</v>
       </c>
@@ -4896,7 +4368,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>267</v>
       </c>
@@ -4961,7 +4433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>268</v>
       </c>
@@ -5026,7 +4498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>274</v>
       </c>
@@ -5091,164 +4563,208 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="B49" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="T49" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="V49" s="2" t="s">
+      <c r="V49" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="D50" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.775" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.775" style="2"/>
+    <col min="1" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5271,7 +4787,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -5285,7 +4801,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5299,7 +4815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -5313,7 +4829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -5327,7 +4843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -5341,7 +4857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -5355,7 +4871,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -5369,7 +4885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -5383,7 +4899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
@@ -5397,7 +4913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -5411,7 +4927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -5425,7 +4941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -5439,7 +4955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -5453,7 +4969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -5467,7 +4983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
@@ -5481,7 +4997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -5495,7 +5011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
@@ -5509,7 +5025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -5523,7 +5039,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -5537,7 +5053,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -5551,7 +5067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -5562,7 +5078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -5576,7 +5092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
@@ -5593,7 +5109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -5607,7 +5123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -5625,7 +5141,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -5641,7 +5157,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
@@ -5659,7 +5175,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
@@ -5677,7 +5193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
@@ -5695,7 +5211,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:22">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -5713,7 +5229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -5731,7 +5247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
@@ -5751,7 +5267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -5771,7 +5287,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -5791,7 +5307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -5809,7 +5325,7 @@
       </c>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>232</v>
       </c>
@@ -5829,7 +5345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -5847,7 +5363,7 @@
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -5865,7 +5381,7 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -5885,7 +5401,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>202</v>
       </c>
@@ -5905,7 +5421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
@@ -5925,7 +5441,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -5943,7 +5459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:7">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
@@ -5961,7 +5477,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:7">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>264</v>
       </c>
@@ -5981,7 +5497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:7">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>267</v>
       </c>
@@ -6004,7 +5520,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:7">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>268</v>
       </c>
@@ -6027,7 +5543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:7">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>274</v>
       </c>
@@ -6047,170 +5563,181 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
+      <c r="G49" s="15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
+      <c r="D50" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:1">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:1">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:1">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:1">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:1">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:1">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:1">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:1">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:1">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:1">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:1">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:1">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:1">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:1">
+    <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:1">
+    <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:1">
+    <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:1">
+    <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:1">
+    <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:1">
+    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:1">
+    <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:1">
+    <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:1">
+    <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:1">
+    <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88333333333333" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +5745,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -6226,7 +5753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -6234,7 +5761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -6242,7 +5769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -6250,7 +5777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -6258,7 +5785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -6266,7 +5793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -6274,7 +5801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -6282,7 +5809,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
@@ -6290,7 +5817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -6298,7 +5825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -6306,7 +5833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -6314,7 +5841,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -6322,7 +5849,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -6330,7 +5857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
@@ -6338,7 +5865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -6346,7 +5873,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
@@ -6354,7 +5881,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -6362,7 +5889,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -6370,7 +5897,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -6378,7 +5905,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -6386,7 +5913,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -6394,7 +5921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
@@ -6402,7 +5929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -6410,7 +5937,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -6418,7 +5945,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -6426,7 +5953,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
@@ -6434,7 +5961,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
@@ -6442,7 +5969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
@@ -6450,7 +5977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -6458,7 +5985,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -6466,7 +5993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
@@ -6474,7 +6001,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -6482,7 +6009,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -6490,7 +6017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -6498,7 +6025,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>232</v>
       </c>
@@ -6506,7 +6033,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -6514,7 +6041,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -6522,7 +6049,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -6530,7 +6057,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>202</v>
       </c>
@@ -6538,7 +6065,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
@@ -6546,7 +6073,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -6554,7 +6081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
@@ -6562,7 +6089,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>264</v>
       </c>
@@ -6570,7 +6097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>267</v>
       </c>
@@ -6578,7 +6105,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>268</v>
       </c>
@@ -6586,7 +6113,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>274</v>
       </c>
@@ -6594,116 +6121,116 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B66" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57A7A8F-E411-4FDD-991D-5E7A348CDDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAECAD9C-1805-4C75-B3EE-3368B35A2382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="361">
   <si>
     <t>期号</t>
   </si>
@@ -1094,6 +1094,42 @@
   </si>
   <si>
     <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1256,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,9 +1538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+      <selection pane="bottomLeft" activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4632,45 +4671,63 @@
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="B50" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="J50" s="14" t="s">
+      <c r="J50" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="M50" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14" t="s">
+      <c r="O50" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="P50" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="Q50" s="14" t="s">
+      <c r="Q50" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="R50" s="14" t="s">
+      <c r="R50" s="16" t="s">
         <v>349</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="U50" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="V50" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -4754,9 +4811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5590,11 +5647,23 @@
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="B50" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="E50" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="15" t="s">
         <v>350</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAECAD9C-1805-4C75-B3EE-3368B35A2382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94B75B-B7B5-4090-833A-6E702ED93D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="375">
   <si>
     <t>期号</t>
   </si>
@@ -1130,6 +1130,62 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,6 +1315,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1538,9 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z48" sqref="Z48"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4686,7 +4745,9 @@
       <c r="F50" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="G50" s="8"/>
+      <c r="G50" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="H50" s="15" t="s">
         <v>341</v>
       </c>
@@ -4734,6 +4795,48 @@
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="D51" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -4803,7 +4906,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4811,9 +4914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5669,6 +5772,12 @@
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94B75B-B7B5-4090-833A-6E702ED93D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B93340-468C-4E44-A914-7C083822BC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="888" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="397">
   <si>
     <t>期号</t>
   </si>
@@ -1186,6 +1186,94 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24671358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1254,6 +1342,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1267,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,6 +1412,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1597,9 +1694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51:R51"/>
+      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1708,8 @@
     <col min="20" max="20" width="9" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" style="2" customWidth="1"/>
     <col min="22" max="22" width="9.5546875" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="4.6640625" style="2"/>
+    <col min="23" max="23" width="8.77734375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="4.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,6 +1776,9 @@
       </c>
       <c r="V1" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,7 +4762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
@@ -4726,7 +4827,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
@@ -4790,115 +4891,181 @@
       <c r="V50" s="16" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="B51" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="L51" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M51" s="14" t="s">
+      <c r="M51" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="P51" s="14" t="s">
+      <c r="O51" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="Q51" s="14" t="s">
+      <c r="Q51" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="R51" s="14" t="s">
+      <c r="R51" s="15" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T51" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="U51" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="W51" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="W52" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>
@@ -4914,9 +5081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5773,16 +5940,28 @@
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="B51" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="16" t="s">
         <v>372</v>
       </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B93340-468C-4E44-A914-7C083822BC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE1344-E290-42AE-9ABC-B1A5591EEA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3192" yWindow="360" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="439">
   <si>
     <t>期号</t>
   </si>
@@ -918,122 +918,248 @@
     <t>羊姐</t>
   </si>
   <si>
-    <t>探讨人生</t>
-  </si>
-  <si>
-    <t>果冻</t>
-  </si>
-  <si>
-    <t>男女</t>
-  </si>
-  <si>
-    <t>035</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>5-045</t>
   </si>
   <si>
-    <t>456</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>5-35-235</t>
   </si>
   <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>9-79</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013894</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24671358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>76</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>832</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>9-19</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>6-16</t>
-  </si>
-  <si>
-    <t>9-59</t>
-  </si>
-  <si>
-    <t>1-19</t>
-  </si>
-  <si>
-    <t>9-79</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1041,11 +1167,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊尾巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32</t>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17825346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1053,11 +1431,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1065,215 +1455,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>496</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013894</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24671358</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊尾巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
+    <t>127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0358946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1695,8 +1885,8 @@
   <dimension ref="A1:AJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,10 +4957,10 @@
         <v>278</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>55</v>
@@ -4832,67 +5022,67 @@
         <v>282</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="D50" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>364</v>
-      </c>
       <c r="H50" s="15" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="V50" s="16" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="W50" s="14" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -4900,134 +5090,384 @@
         <v>283</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="L51" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="U51" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="W51" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q51" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="R51" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="U51" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="V51" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="W51" s="15" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="B52" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="M52" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="P52" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q52" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="W52" s="14" t="s">
-        <v>393</v>
+      <c r="V52" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="W52" s="16" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="B53" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="V53" s="16" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="B54" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U54" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="V54" s="16" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="B55" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="U55" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="U56" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="V56" s="14" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -5079,11 +5519,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5091,7 +5531,7 @@
     <col min="1" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5104,17 +5544,8 @@
       <c r="D1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -5128,7 +5559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5142,7 +5573,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>52</v>
       </c>
@@ -5156,7 +5587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -5170,7 +5601,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -5184,7 +5615,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -5198,7 +5629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -5212,7 +5643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -5226,7 +5657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
@@ -5240,7 +5671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -5254,7 +5685,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -5268,7 +5699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
@@ -5282,7 +5713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -5296,7 +5727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -5310,7 +5741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
@@ -5324,7 +5755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>138</v>
       </c>
@@ -5338,7 +5769,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>143</v>
       </c>
@@ -5352,7 +5783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>149</v>
       </c>
@@ -5366,7 +5797,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
@@ -5380,7 +5811,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>157</v>
       </c>
@@ -5394,7 +5825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
@@ -5405,7 +5836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -5419,7 +5850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
@@ -5432,11 +5863,8 @@
       <c r="D24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>107</v>
       </c>
@@ -5450,7 +5878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>181</v>
       </c>
@@ -5463,12 +5891,8 @@
       <c r="D26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="G26" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -5479,12 +5903,8 @@
       <c r="D27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="G27" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>193</v>
       </c>
@@ -5497,12 +5917,8 @@
       <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="G28" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
@@ -5515,12 +5931,8 @@
       <c r="D29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="G29" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>203</v>
       </c>
@@ -5528,17 +5940,13 @@
         <v>204</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="G30" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>207</v>
       </c>
@@ -5548,15 +5956,11 @@
       <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="G31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>212</v>
       </c>
@@ -5569,12 +5973,8 @@
       <c r="D32" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="G32" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>216</v>
       </c>
@@ -5587,14 +5987,8 @@
       <c r="D33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>219</v>
       </c>
@@ -5607,14 +6001,8 @@
       <c r="D34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>224</v>
       </c>
@@ -5622,19 +6010,13 @@
         <v>225</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -5647,12 +6029,8 @@
       <c r="D36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>232</v>
       </c>
@@ -5665,14 +6043,8 @@
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>236</v>
       </c>
@@ -5685,12 +6057,8 @@
       <c r="D38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>241</v>
       </c>
@@ -5703,12 +6071,8 @@
       <c r="D39" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>242</v>
       </c>
@@ -5721,14 +6085,8 @@
       <c r="D40" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>202</v>
       </c>
@@ -5741,14 +6099,8 @@
       <c r="D41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
@@ -5761,14 +6113,8 @@
       <c r="D42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>256</v>
       </c>
@@ -5779,14 +6125,8 @@
       <c r="D43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
@@ -5797,14 +6137,8 @@
       <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>264</v>
       </c>
@@ -5812,19 +6146,13 @@
         <v>198</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>267</v>
       </c>
@@ -5837,17 +6165,8 @@
       <c r="D46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>268</v>
       </c>
@@ -5860,17 +6179,8 @@
       <c r="D47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>274</v>
       </c>
@@ -5878,24 +6188,18 @@
         <v>275</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>43</v>
@@ -5903,170 +6207,185 @@
       <c r="D49" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,13 +6895,13 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B66" s="2"/>
     </row>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1033,7 +1033,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,9 +1043,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,14 +1058,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,11 +1087,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,16 +1102,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,8 +1147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,6 +1157,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,28 +1181,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,13 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,13 +1249,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,25 +1315,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,108 +1415,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1429,41 +1422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1501,7 +1459,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,25 +1522,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1547,137 +1540,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,19 +1696,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2057,7 +2038,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T59" sqref="T59"/>
+      <selection pane="bottomLeft" activeCell="AH53" sqref="AH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
@@ -2128,7 +2109,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2119,7 @@
       <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2197,28 +2178,28 @@
       <c r="R2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="17"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
     </row>
     <row r="3" ht="13.8" customHeight="1" spans="1:21">
       <c r="A3" s="2" t="s">
@@ -2272,7 +2253,7 @@
       <c r="R3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="7" t="s">
         <v>51</v>
       </c>
@@ -2335,7 +2316,7 @@
       <c r="R4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="17"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="4" t="s">
         <v>63</v>
       </c>
@@ -2398,7 +2379,7 @@
       <c r="R5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="13"/>
       <c r="T5" s="4" t="s">
         <v>70</v>
       </c>
@@ -2461,7 +2442,7 @@
       <c r="R6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="5" t="s">
         <v>76</v>
       </c>
@@ -2524,7 +2505,7 @@
       <c r="R7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="16"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="4" t="s">
         <v>86</v>
       </c>
@@ -2587,7 +2568,7 @@
       <c r="R8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="5" t="s">
         <v>94</v>
       </c>
@@ -2650,7 +2631,7 @@
       <c r="R9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="16"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="5" t="s">
         <v>101</v>
       </c>
@@ -2713,7 +2694,7 @@
       <c r="R10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="16"/>
+      <c r="S10" s="12"/>
       <c r="T10" s="4" t="s">
         <v>106</v>
       </c>
@@ -3534,7 +3515,7 @@
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3809,7 +3790,7 @@
       <c r="K28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="11" t="s">
         <v>99</v>
       </c>
       <c r="M28" s="4" t="s">
@@ -4443,7 +4424,7 @@
       <c r="G38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="4" t="s">
         <v>57</v>
       </c>
@@ -5012,7 +4993,7 @@
       <c r="F47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -5127,10 +5108,10 @@
       <c r="A49" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -5192,67 +5173,67 @@
       <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N50" s="10" t="s">
+      <c r="N50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R50" s="10" t="s">
+      <c r="R50" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U50" s="11" t="s">
+      <c r="U50" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="V50" s="10" t="s">
+      <c r="V50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="9" t="s">
+      <c r="W50" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5260,67 +5241,67 @@
       <c r="A51" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U51" s="11" t="s">
+      <c r="U51" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="V51" s="11" t="s">
+      <c r="V51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W51" s="11" t="s">
+      <c r="W51" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5328,67 +5309,67 @@
       <c r="A52" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N52" s="10" t="s">
+      <c r="N52" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T52" s="10" t="s">
+      <c r="T52" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="U52" s="10" t="s">
+      <c r="U52" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="V52" s="10" t="s">
+      <c r="V52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="10" t="s">
+      <c r="W52" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5396,64 +5377,64 @@
       <c r="A53" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M53" s="10" t="s">
+      <c r="M53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="10" t="s">
+      <c r="N53" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P53" s="10" t="s">
+      <c r="P53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="T53" s="10" t="s">
+      <c r="T53" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="U53" s="10" t="s">
+      <c r="U53" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V53" s="10" t="s">
+      <c r="V53" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5461,64 +5442,64 @@
       <c r="A54" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="H54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="I54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="U54" s="11" t="s">
+      <c r="U54" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="V54" s="10" t="s">
+      <c r="V54" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5526,62 +5507,62 @@
       <c r="A55" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="11" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="M55" s="10" t="s">
+      <c r="M55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T55" s="11" t="s">
+      <c r="T55" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="11" t="s">
+      <c r="U55" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="V55" s="10" t="s">
+      <c r="V55" s="5" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5589,58 +5570,58 @@
       <c r="A56" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I56" s="9" t="s">
+      <c r="I56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="3" t="s">
         <v>126</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P56" s="9" t="s">
+      <c r="P56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T56" s="9" t="s">
+      <c r="T56" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="U56" s="9" t="s">
+      <c r="U56" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="V56" s="9" t="s">
+      <c r="V56" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6374,7 +6355,7 @@
       <c r="A49" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -6388,13 +6369,13 @@
       <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6402,13 +6383,13 @@
       <c r="A51" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6416,13 +6397,13 @@
       <c r="A52" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6430,13 +6411,13 @@
       <c r="A53" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6444,13 +6425,13 @@
       <c r="A54" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6458,13 +6439,13 @@
       <c r="A55" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6472,10 +6453,10 @@
       <c r="A56" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="3" t="s">
         <v>325</v>
       </c>
     </row>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE1344-E290-42AE-9ABC-B1A5591EEA0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99D7E9-572B-4D7C-90B2-D3F436A374DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="360" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3192" yWindow="360" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="459">
   <si>
     <t>期号</t>
   </si>
@@ -1464,6 +1464,86 @@
   </si>
   <si>
     <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,13,15,16,17,20,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-058-69</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,9 +1964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
+      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5418,61 +5498,118 @@
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="B56" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="L56" s="14" t="s">
+      <c r="L56" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="M56" s="14" t="s">
+      <c r="M56" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="N56" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="P56" s="14" t="s">
+      <c r="O56" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="P56" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="Q56" s="14" t="s">
+      <c r="Q56" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="R56" s="14" t="s">
+      <c r="R56" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="T56" s="14" t="s">
+      <c r="T56" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="U56" s="14" t="s">
+      <c r="U56" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="V56" s="14" t="s">
+      <c r="V56" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="U57" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="V57" s="14" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -5521,14 +5658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="4" width="10.77734375" style="2"/>
+    <col min="5" max="5" width="20.77734375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6194,7 +6333,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>278</v>
       </c>
@@ -6208,7 +6347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>282</v>
       </c>
@@ -6222,7 +6361,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>283</v>
       </c>
@@ -6236,7 +6375,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>284</v>
       </c>
@@ -6250,7 +6389,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>285</v>
       </c>
@@ -6264,7 +6403,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>286</v>
       </c>
@@ -6278,7 +6417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>287</v>
       </c>
@@ -6292,53 +6431,65 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>294</v>
       </c>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99D7E9-572B-4D7C-90B2-D3F436A374DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C22B44-52F7-4037-9871-5ED00C77F2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="360" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
     <sheet name="贴吧" sheetId="9" r:id="rId2"/>
-    <sheet name="胆码" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="479">
   <si>
     <t>期号</t>
   </si>
@@ -1535,15 +1534,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-058-69</t>
+    <t>137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,7,9,14</t>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单挑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1631,11 +1709,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,3602 +2041,3611 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="6.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="2"/>
-    <col min="20" max="20" width="9" style="2" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="4.6640625" style="2"/>
+    <col min="1" max="16" width="6.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" style="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.77734375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="4.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="11"/>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="4" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="11"/>
+      <c r="T6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="4" t="s">
+      <c r="S7" s="11"/>
+      <c r="T7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="5" t="s">
+      <c r="S8" s="11"/>
+      <c r="T8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="5" t="s">
+      <c r="S9" s="11"/>
+      <c r="T9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="4" t="s">
+      <c r="S10" s="11"/>
+      <c r="T10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="4" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="4" t="s">
+      <c r="O11" s="7"/>
+      <c r="P11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="V16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="V20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="O21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V22" s="7" t="s">
+      <c r="V22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="T23" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="T24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="T25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="V26" s="5" t="s">
+      <c r="V26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="V27" s="5" t="s">
+      <c r="V27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="O28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="9" t="s">
+      <c r="T28" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="U28" s="9" t="s">
+      <c r="U28" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="V28" s="5" t="s">
+      <c r="V28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="V30" s="7" t="s">
+      <c r="V30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="V31" s="7" t="s">
+      <c r="V31" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="5" t="s">
+      <c r="K33" s="7"/>
+      <c r="L33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="V33" s="5" t="s">
+      <c r="V33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="4" t="s">
+      <c r="K34" s="7"/>
+      <c r="L34" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="T34" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="V34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="4" t="s">
+      <c r="T35" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="U35" s="4" t="s">
+      <c r="U35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="R36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T36" s="9" t="s">
+      <c r="T36" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="U36" s="9" t="s">
+      <c r="U36" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="V36" s="7" t="s">
+      <c r="V36" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P37" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="V37" s="7" t="s">
+      <c r="V37" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="9"/>
+      <c r="I38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T38" s="4" t="s">
+      <c r="T38" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V38" s="5" t="s">
+      <c r="V38" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T39" s="4" t="s">
+      <c r="T39" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="V39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T40" s="9" t="s">
+      <c r="T40" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="U40" s="9" t="s">
+      <c r="U40" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="V40" s="7" t="s">
+      <c r="V40" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="Q41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="V41" s="7" t="s">
+      <c r="V41" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R42" s="4" t="s">
+      <c r="R42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="T42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="U42" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="N43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="3"/>
-      <c r="P43" s="4" t="s">
+      <c r="O43" s="2"/>
+      <c r="P43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="R43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="T43" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="U43" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="T44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U44" s="4" t="s">
+      <c r="U44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="V44" s="5" t="s">
+      <c r="V44" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O45" s="9" t="s">
+      <c r="O45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="9" t="s">
+      <c r="T45" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="U45" s="9" t="s">
+      <c r="U45" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="N46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="O46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="R46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T46" s="4" t="s">
+      <c r="T46" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="U46" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="V46" s="5" t="s">
+      <c r="V46" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="R47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="U47" s="5" t="s">
+      <c r="U47" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="V47" s="5" t="s">
+      <c r="V47" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="O48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="R48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T48" s="4" t="s">
+      <c r="T48" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="U48" s="4" t="s">
+      <c r="U48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="V48" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="5" t="s">
+      <c r="P49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="R49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T49" s="7" t="s">
+      <c r="T49" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="U49" s="7" t="s">
+      <c r="U49" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="V49" s="7" t="s">
+      <c r="V49" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="K50" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="M50" s="15" t="s">
+      <c r="M50" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="N50" s="16" t="s">
+      <c r="N50" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="O50" s="15" t="s">
+      <c r="O50" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="P50" s="15" t="s">
+      <c r="P50" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="Q50" s="15" t="s">
+      <c r="Q50" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="T50" s="15" t="s">
+      <c r="T50" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="U50" s="15" t="s">
+      <c r="U50" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="V50" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="W50" s="14" t="s">
+      <c r="W50" s="13" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="J51" s="15" t="s">
+      <c r="J51" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="L51" s="15" t="s">
+      <c r="L51" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="M51" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="N51" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="O51" s="15" t="s">
+      <c r="O51" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="P51" s="15" t="s">
+      <c r="P51" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="Q51" s="15" t="s">
+      <c r="Q51" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="R51" s="15" t="s">
+      <c r="R51" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="T51" s="15" t="s">
+      <c r="T51" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="U51" s="15" t="s">
+      <c r="U51" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="V51" s="15" t="s">
+      <c r="V51" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="W51" s="15" t="s">
+      <c r="W51" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="M52" s="15" t="s">
+      <c r="M52" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N52" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="O52" s="15" t="s">
+      <c r="O52" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="P52" s="15" t="s">
+      <c r="P52" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="Q52" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="R52" s="15" t="s">
+      <c r="R52" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="U52" s="16" t="s">
+      <c r="U52" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="V52" s="16" t="s">
+      <c r="V52" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="W52" s="16" t="s">
+      <c r="W52" s="15" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="O53" s="15" t="s">
+      <c r="O53" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="P53" s="16" t="s">
+      <c r="P53" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="Q53" s="15" t="s">
+      <c r="Q53" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="R53" s="15" t="s">
+      <c r="R53" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="T53" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="U53" s="16" t="s">
+      <c r="U53" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="V53" s="16" t="s">
+      <c r="V53" s="15" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="J54" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="K54" s="15" t="s">
+      <c r="K54" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="M54" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="N54" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="O54" s="15" t="s">
+      <c r="O54" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="P54" s="15" t="s">
+      <c r="P54" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="Q54" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="R54" s="15" t="s">
+      <c r="R54" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="T54" s="15" t="s">
+      <c r="T54" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="U54" s="15" t="s">
+      <c r="U54" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="V54" s="16" t="s">
+      <c r="V54" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="15" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="M55" s="16" t="s">
+      <c r="M55" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="N55" s="15" t="s">
+      <c r="N55" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="O55" s="15" t="s">
+      <c r="O55" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="P55" s="15" t="s">
+      <c r="P55" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="Q55" s="15" t="s">
+      <c r="Q55" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="R55" s="15" t="s">
+      <c r="R55" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="T55" s="15" t="s">
+      <c r="T55" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="U55" s="15" t="s">
+      <c r="U55" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="V55" s="16" t="s">
+      <c r="V55" s="15" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G56" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="J56" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="M56" s="15" t="s">
+      <c r="M56" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="N56" s="15" t="s">
+      <c r="N56" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="O56" s="15" t="s">
+      <c r="O56" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="P56" s="15" t="s">
+      <c r="P56" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="Q56" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="R56" s="15" t="s">
+      <c r="R56" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="T56" s="15" t="s">
+      <c r="T56" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="U56" s="15" t="s">
+      <c r="U56" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="V56" s="16" t="s">
+      <c r="V56" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>289</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>442</v>
@@ -5575,7 +5659,7 @@
       <c r="H57" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="15" t="s">
         <v>446</v>
       </c>
       <c r="J57" s="14" t="s">
@@ -5587,11 +5671,14 @@
       <c r="L57" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="M57" s="14" t="s">
+      <c r="M57" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="15" t="s">
         <v>450</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="P57" s="14" t="s">
         <v>451</v>
@@ -5602,48 +5689,87 @@
       <c r="R57" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="T57" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="U57" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="V57" s="14" t="s">
-        <v>457</v>
+      <c r="T57" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="U57" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="D58" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5659,888 +5785,912 @@
   <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.77734375" style="2"/>
-    <col min="5" max="5" width="20.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="2"/>
+    <col min="1" max="4" width="10.77734375" style="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="15" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="D58" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6549,515 +6699,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C22B44-52F7-4037-9871-5ED00C77F2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125CBFD-63B9-4996-BF70-4E4A9194C7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="502">
   <si>
     <t>期号</t>
   </si>
@@ -1622,6 +1622,98 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,19,20,22,23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 79 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1653,7 +1745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1696,6 +1788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1709,7 +1807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1760,6 +1858,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2039,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5703,49 +5807,119 @@
       <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="B58" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="G58" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="J58" s="13" t="s">
+      <c r="J58" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="M58" s="13" t="s">
+      <c r="M58" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="N58" s="13" t="s">
+      <c r="N58" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="P58" s="13" t="s">
+      <c r="O58" s="17"/>
+      <c r="P58" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="Q58" s="13" t="s">
+      <c r="Q58" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="R58" s="13" t="s">
+      <c r="R58" s="14" t="s">
         <v>478</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="U58" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="U59" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5784,9 +5958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6601,22 +6775,37 @@
       <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="B58" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F125CBFD-63B9-4996-BF70-4E4A9194C7A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CF86F4-9064-4356-B05A-4BF969F3723E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="495">
   <si>
     <t>期号</t>
   </si>
@@ -1530,10 +1530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,13,15,16,17,20,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,22 +1554,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,5,6,7,9,14</t>
-  </si>
-  <si>
-    <t>推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单挑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,7,9</t>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03589</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1581,43 +1642,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1625,95 +1654,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03589</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>586</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,19,20,22,23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 79 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45 79 23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1745,7 +1718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,12 +1761,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1807,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1858,12 +1825,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2143,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V59" sqref="V59"/>
+      <selection pane="bottomLeft" activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5743,13 +5704,13 @@
         <v>289</v>
       </c>
       <c r="B57" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="D57" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>458</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>442</v>
@@ -5782,7 +5743,7 @@
         <v>450</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P57" s="14" t="s">
         <v>451</v>
@@ -5794,10 +5755,10 @@
         <v>452</v>
       </c>
       <c r="T57" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="U57" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="U57" s="15" t="s">
-        <v>460</v>
       </c>
       <c r="V57" s="15" t="s">
         <v>348</v>
@@ -5808,118 +5769,125 @@
         <v>276</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D58" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="L58" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="M58" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="N58" s="14" t="s">
         <v>470</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="L58" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="M58" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="O58" s="17"/>
       <c r="P58" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="R58" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="Q58" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="R58" s="14" t="s">
-        <v>478</v>
-      </c>
       <c r="T58" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="V58" s="15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="B59" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="P59" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="Q59" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="T59" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="U59" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="G59" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="H59" s="13" t="s">
+      <c r="V59" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q59" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="V59" s="13" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -5956,21 +5924,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.77734375" style="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5983,17 +5949,8 @@
       <c r="D1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -6007,7 +5964,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -6021,7 +5978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -6035,7 +5992,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -6049,7 +6006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -6063,7 +6020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -6077,7 +6034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -6091,7 +6048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -6105,7 +6062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -6119,7 +6076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -6133,7 +6090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -6147,7 +6104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -6161,7 +6118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -6175,7 +6132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -6189,7 +6146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
@@ -6203,7 +6160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -6217,7 +6174,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -6231,7 +6188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>149</v>
       </c>
@@ -6245,7 +6202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -6259,7 +6216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -6273,7 +6230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -6284,7 +6241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
@@ -6298,7 +6255,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -6312,7 +6269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -6326,7 +6283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
@@ -6340,7 +6297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
@@ -6352,7 +6309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
@@ -6366,7 +6323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
@@ -6380,7 +6337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -6394,7 +6351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
@@ -6404,11 +6361,11 @@
       <c r="D31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
@@ -6642,7 +6599,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>278</v>
       </c>
@@ -6656,7 +6613,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>282</v>
       </c>
@@ -6670,7 +6627,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>283</v>
       </c>
@@ -6684,7 +6641,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>284</v>
       </c>
@@ -6698,7 +6655,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>285</v>
       </c>
@@ -6712,7 +6669,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>286</v>
       </c>
@@ -6726,7 +6683,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
@@ -6740,7 +6697,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
@@ -6754,12 +6711,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>453</v>
@@ -6767,68 +6724,53 @@
       <c r="D57" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="E57" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>294</v>
       </c>

--- a/src/lottery/third3d/胆码尾巴统计.xlsx
+++ b/src/lottery/third3d/胆码尾巴统计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IdeaProjects\Third3DOpenNums\src\lottery\third3d\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CF86F4-9064-4356-B05A-4BF969F3723E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="708" windowWidth="17820" windowHeight="11472" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重新统计尾巴" sheetId="7" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="352">
   <si>
     <t>期号</t>
   </si>
@@ -65,9 +59,6 @@
     <t>甜馨</t>
   </si>
   <si>
-    <t>旧人离</t>
-  </si>
-  <si>
     <t>a蓝琪儿</t>
   </si>
   <si>
@@ -86,6 +77,9 @@
     <t>单挑</t>
   </si>
   <si>
+    <t>羊尾巴</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
@@ -119,36 +113,36 @@
     <t>15</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1348059</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1348059</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>57</t>
   </si>
   <si>
@@ -860,6 +854,9 @@
     <t>006</t>
   </si>
   <si>
+    <t>296</t>
+  </si>
+  <si>
     <t>1207</t>
   </si>
   <si>
@@ -872,36 +869,138 @@
     <t>007</t>
   </si>
   <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>013894</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24671358</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>8067</t>
+  </si>
+  <si>
+    <t>19234</t>
+  </si>
+  <si>
     <t>010</t>
   </si>
   <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>08569</t>
+  </si>
+  <si>
+    <t>14723</t>
+  </si>
+  <si>
     <t>011</t>
   </si>
   <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>01268</t>
+  </si>
+  <si>
+    <t>39547</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>17825346</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>0358946</t>
+  </si>
+  <si>
     <t>014</t>
   </si>
   <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>205896</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>03589</t>
+  </si>
+  <si>
+    <t>47162</t>
+  </si>
+  <si>
     <t>016</t>
   </si>
   <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>45 79 23</t>
+  </si>
+  <si>
     <t>017</t>
   </si>
   <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>3601892</t>
+  </si>
+  <si>
     <t>018</t>
   </si>
   <si>
+    <t>2468</t>
+  </si>
+  <si>
+    <t>013975</t>
+  </si>
+  <si>
     <t>020</t>
   </si>
   <si>
@@ -926,775 +1025,65 @@
     <t>5-35-235</t>
   </si>
   <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>9-79</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
     <t>029</t>
   </si>
   <si>
-    <t>9-19</t>
-  </si>
-  <si>
-    <t>1-19</t>
-  </si>
-  <si>
-    <t>9-79</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
     <t>030</t>
-  </si>
-  <si>
-    <t>296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>496</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>267</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>013894</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24671358</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊尾巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>574</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>389</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01268</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>397</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>346</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17825346</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0358946</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205896</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03589</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>586</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45 79 23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,22 +1092,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1739,19 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79976805932798245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79958494827112647"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,8 +1267,206 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799768059327982"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799584948271126"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1770,11 +1474,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1788,57 +1734,89 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2096,33 +2074,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R68" sqref="R68"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.66666666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16" width="6.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="4.6640625" style="1"/>
+    <col min="1" max="15" width="6.775" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.66666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.775" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.66666666666667" style="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.55833333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.775" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="4.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="45" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,24 +2153,21 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11"/>
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" ht="13.8" customHeight="1" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2201,135 +2177,129 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-    </row>
-    <row r="3" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="8" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="13.8" customHeight="1" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2337,7 +2307,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>54</v>
@@ -2373,26 +2343,23 @@
         <v>60</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="T4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2409,7 +2376,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -2436,26 +2403,23 @@
         <v>31</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="T5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" customHeight="1" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2433,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
@@ -2484,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>56</v>
@@ -2498,27 +2462,24 @@
       <c r="N6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="11"/>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2526,7 +2487,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>78</v>
@@ -2538,7 +2499,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>80</v>
@@ -2562,26 +2523,23 @@
         <v>82</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="T7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="13.8" customHeight="1" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -2598,7 +2556,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>23</v>
@@ -2622,29 +2580,26 @@
         <v>91</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="T8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="13.8" customHeight="1" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -2688,26 +2643,23 @@
         <v>98</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="T9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" customHeight="1" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -2751,26 +2703,23 @@
         <v>67</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="P10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="3" t="s">
+      <c r="R10" s="11"/>
+      <c r="S10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="13.8" customHeight="1" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -2790,40 +2739,39 @@
         <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="P11" s="3" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="13.8" customHeight="1" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -2855,7 +2803,7 @@
         <v>57</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="3" t="s">
@@ -2865,22 +2813,19 @@
         <v>82</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="13.8" customHeight="1" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
@@ -2922,22 +2867,19 @@
         <v>68</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="13.8" customHeight="1" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -2948,7 +2890,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>72</v>
@@ -2961,10 +2903,10 @@
         <v>123</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>43</v>
@@ -2979,22 +2921,19 @@
         <v>29</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="13.8" customHeight="1" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -3014,13 +2953,13 @@
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>57</v>
@@ -3037,26 +2976,23 @@
       <c r="N15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>32</v>
+      <c r="O15" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>35</v>
+      <c r="Q15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="U15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="13.8" customHeight="1" spans="1:21">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
@@ -3088,7 +3024,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>73</v>
@@ -3100,28 +3036,25 @@
         <v>104</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>43</v>
+      <c r="S16" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="U16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="13.8" customHeight="1" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -3129,13 +3062,13 @@
         <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>26</v>
@@ -3150,7 +3083,7 @@
         <v>26</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>49</v>
@@ -3164,26 +3097,23 @@
       <c r="N17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>66</v>
+      <c r="O17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="13.8" customHeight="1" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
@@ -3191,7 +3121,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -3200,7 +3130,7 @@
         <v>145</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>27</v>
@@ -3227,25 +3157,22 @@
         <v>42</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="13.8" customHeight="1" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>149</v>
       </c>
@@ -3262,7 +3189,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>23</v>
@@ -3274,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>57</v>
@@ -3289,25 +3216,22 @@
         <v>46</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="U19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="13.8" customHeight="1" spans="1:21">
       <c r="A20" s="1" t="s">
         <v>153</v>
       </c>
@@ -3336,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>56</v>
@@ -3351,28 +3275,25 @@
         <v>129</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="V20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="13.8" customHeight="1" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -3398,13 +3319,13 @@
         <v>72</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>130</v>
@@ -3416,25 +3337,22 @@
         <v>115</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="S21" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="T21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="13.8" customHeight="1" spans="1:21">
       <c r="A22" s="1" t="s">
         <v>161</v>
       </c>
@@ -3463,7 +3381,7 @@
         <v>66</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>23</v>
@@ -3478,28 +3396,25 @@
         <v>68</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="U22" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="13.8" customHeight="1" spans="1:21">
       <c r="A23" s="1" t="s">
         <v>167</v>
       </c>
@@ -3509,7 +3424,7 @@
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3519,16 +3434,16 @@
         <v>27</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>49</v>
@@ -3542,29 +3457,26 @@
       <c r="N23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="P23" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="Q23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="S23" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="U23" s="8" t="s">
+      <c r="T23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -3572,7 +3484,7 @@
         <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>104</v>
@@ -3583,7 +3495,7 @@
       <c r="F24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3608,28 +3520,25 @@
         <v>31</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" s="8" t="s">
+      <c r="S24" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="T24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V24" s="8" t="s">
+      <c r="U24" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -3637,7 +3546,7 @@
         <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>99</v>
@@ -3646,13 +3555,13 @@
         <v>178</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>66</v>
@@ -3673,28 +3582,25 @@
         <v>55</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S25" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="T25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="U25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
         <v>181</v>
       </c>
@@ -3702,16 +3608,16 @@
         <v>182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>43</v>
@@ -3738,28 +3644,25 @@
         <v>61</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>27</v>
+      <c r="S26" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="U26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
@@ -3767,7 +3670,7 @@
         <v>188</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>125</v>
@@ -3776,7 +3679,7 @@
         <v>189</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>66</v>
@@ -3802,29 +3705,26 @@
       <c r="N27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>26</v>
+      <c r="O27" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="V27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
         <v>193</v>
       </c>
@@ -3841,7 +3741,7 @@
         <v>195</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>66</v>
@@ -3853,7 +3753,7 @@
         <v>49</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>26</v>
@@ -3867,29 +3767,26 @@
       <c r="N28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O28" s="8" t="s">
-        <v>26</v>
+      <c r="O28" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="S28" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="U28" s="8" t="s">
+      <c r="T28" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="U28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
@@ -3933,28 +3830,25 @@
         <v>104</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R29" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="S29" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="T29" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V29" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -3962,19 +3856,19 @@
         <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>79</v>
@@ -3986,7 +3880,7 @@
         <v>49</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>145</v>
@@ -3997,29 +3891,26 @@
       <c r="N30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="3" t="s">
+      <c r="P30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T30" s="6" t="s">
+      <c r="S30" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="T30" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="V30" s="6" t="s">
+      <c r="U30" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
@@ -4032,7 +3923,7 @@
       <c r="D31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -4054,7 +3945,7 @@
         <v>23</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>48</v>
@@ -4062,29 +3953,26 @@
       <c r="N31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>33</v>
+      <c r="P31" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T31" s="6" t="s">
+      <c r="S31" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="T31" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="U31" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
         <v>212</v>
       </c>
@@ -4116,7 +4004,7 @@
         <v>27</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>79</v>
@@ -4128,28 +4016,25 @@
         <v>146</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="V32" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -4157,7 +4042,7 @@
         <v>217</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>146</v>
@@ -4166,7 +4051,7 @@
         <v>78</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>66</v>
@@ -4175,7 +4060,7 @@
         <v>114</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>27</v>
@@ -4190,29 +4075,26 @@
       <c r="N33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>57</v>
+      <c r="S33" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="V33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
@@ -4220,7 +4102,7 @@
         <v>220</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>129</v>
@@ -4251,31 +4133,28 @@
         <v>98</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="Q34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="U34" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="U34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
         <v>224</v>
       </c>
@@ -4295,7 +4174,7 @@
         <v>66</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>28</v>
@@ -4319,28 +4198,25 @@
         <v>140</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="S35" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="T35" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="U35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
         <v>228</v>
       </c>
@@ -4354,13 +4230,13 @@
         <v>195</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>67</v>
@@ -4383,29 +4259,26 @@
       <c r="N36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>32</v>
+      <c r="O36" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="S36" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="U36" s="8" t="s">
+      <c r="T36" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="V36" s="6" t="s">
+      <c r="U36" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
@@ -4415,62 +4288,59 @@
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="6" t="s">
         <v>190</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P37" s="8" t="s">
+      <c r="O37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="P37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="6" t="s">
+      <c r="Q37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="U37" s="6" t="s">
+      <c r="T37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="V37" s="6" t="s">
+      <c r="U37" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
         <v>236</v>
       </c>
@@ -4492,12 +4362,12 @@
       <c r="G38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>56</v>
@@ -4512,28 +4382,25 @@
         <v>31</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="S38" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="T38" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="U38" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="V38" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U38" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
         <v>241</v>
       </c>
@@ -4544,7 +4411,7 @@
         <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>195</v>
@@ -4553,7 +4420,7 @@
         <v>49</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>78</v>
@@ -4562,10 +4429,10 @@
         <v>26</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>243</v>
@@ -4576,29 +4443,26 @@
       <c r="N39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="P39" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="Q39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R39" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S39" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="T39" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="U39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
         <v>242</v>
       </c>
@@ -4608,62 +4472,59 @@
       <c r="C40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="I40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="8" t="s">
+      <c r="K40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" s="8" t="s">
+      <c r="O40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="P40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T40" s="8" t="s">
+      <c r="Q40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="T40" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="V40" s="6" t="s">
+      <c r="U40" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
         <v>202</v>
       </c>
@@ -4673,62 +4534,59 @@
       <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="F41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N41" s="8" t="s">
+      <c r="N41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" s="8" t="s">
+      <c r="O41" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="Q41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R41" s="8" t="s">
+      <c r="P41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="T41" s="6" t="s">
+      <c r="S41" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="U41" s="6" t="s">
+      <c r="T41" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="V41" s="6" t="s">
+      <c r="U41" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
@@ -4739,7 +4597,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>130</v>
@@ -4748,7 +4606,7 @@
         <v>57</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>170</v>
@@ -4771,26 +4629,23 @@
       <c r="N42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>66</v>
+      <c r="O42" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R42" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S42" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="T42" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="U42" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>256</v>
       </c>
@@ -4810,7 +4665,7 @@
         <v>56</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>98</v>
@@ -4822,7 +4677,7 @@
         <v>49</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>90</v>
@@ -4833,24 +4688,23 @@
       <c r="N43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O43" s="2"/>
+      <c r="O43" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="P43" s="3" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R43" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="S43" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="T43" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="U43" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
@@ -4867,7 +4721,7 @@
         <v>262</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>56</v>
@@ -4879,7 +4733,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>27</v>
@@ -4893,29 +4747,26 @@
       <c r="N44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R44" s="4" t="s">
+      <c r="P44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="S44" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="T44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="U44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="2" t="s">
         <v>264</v>
       </c>
@@ -4935,13 +4786,13 @@
         <v>57</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>66</v>
@@ -4958,26 +4809,23 @@
       <c r="N45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="P45" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="Q45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="S45" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="U45" s="8" t="s">
+      <c r="T45" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" s="2" t="s">
         <v>267</v>
       </c>
@@ -4985,7 +4833,7 @@
         <v>268</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>114</v>
@@ -5021,28 +4869,25 @@
         <v>60</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R46" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="S46" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="T46" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="U46" s="3" t="s">
         <v>270</v>
       </c>
-      <c 